--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silverfox_x\Desktop\DesignDocs\VariableData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9462D5C2-7900-40A7-844D-AE18F827A8F2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B27FE7-4D4D-40E7-83EA-DBAF603B2CF7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{DB1F79C8-CF6B-40FB-9CCB-05E5A42E834B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" activeTab="1" xr2:uid="{DB1F79C8-CF6B-40FB-9CCB-05E5A42E834B}"/>
   </bookViews>
   <sheets>
-    <sheet name="디스크립션" sheetId="2" r:id="rId1"/>
-    <sheet name="Npc" sheetId="1" r:id="rId2"/>
+    <sheet name="Npc" sheetId="1" r:id="rId1"/>
+    <sheet name="디스크립션" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -692,6 +692,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA97BC6B-A267-437C-A2B5-1E3B9882BB03}">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CED58E7-AF13-4BCE-AEF1-286B96A15B6B}">
   <dimension ref="B2:E16"/>
   <sheetViews>
@@ -907,190 +1093,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA97BC6B-A267-437C-A2B5-1E3B9882BB03}">
-  <dimension ref="A1:N8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1002</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1100</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5">
-        <v>0.5</v>
-      </c>
-      <c r="I5">
-        <v>0.5</v>
-      </c>
-      <c r="K5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1102</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1103</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B27FE7-4D4D-40E7-83EA-DBAF603B2CF7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1484FE1-F450-4B66-BDD2-1534F2449BE2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" activeTab="1" xr2:uid="{DB1F79C8-CF6B-40FB-9CCB-05E5A42E834B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{DB1F79C8-CF6B-40FB-9CCB-05E5A42E834B}"/>
   </bookViews>
   <sheets>
     <sheet name="Npc" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,11 +94,173 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attack_fuction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target</t>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no107_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no107_02</t>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넘버107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넘버108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임에 노출될 Npc의 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc에 종속된 Animset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc의 공격 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melee , Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격의 부가 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc가 가지고 있는 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(skill_01), (skill_02), …(Skill_n)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc의 등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooltime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc의 총 체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc의 기본 공격 쿨타임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc의 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 타입에 따른 사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recognize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recognize_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE, FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_function</t>
+  </si>
+  <si>
+    <t>attack_function</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -106,217 +268,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no107_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no107_02</t>
-  </si>
-  <si>
-    <t>no107_03</t>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sakura</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사쿠라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넘버107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넘버108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넘버207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Franklin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프랭클린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bush</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부쉬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈씨에나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Don_Ciena</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임에 노출될 Npc의 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Npc에 종속된 Animset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Npc의 공격 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Melee , Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격의 부가 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc가 가지고 있는 스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(skill_01), (skill_02), …(Skill_n)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc의 등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack_damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooltime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc의 총 체력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc의 기본 공격 쿨타임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc의 공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sakura_normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 타입에 따른 사거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recognize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recognize_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인식 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인식 범위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUE, FALSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
+    <t>{(19_DeadlyAttack)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19_CriticalHit)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mob</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA97BC6B-A267-437C-A2B5-1E3B9882BB03}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -724,28 +684,28 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
       <c r="M1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -753,16 +713,40 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2">
         <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -770,10 +754,10 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -782,92 +766,28 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
+        <v>60</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1100</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5">
-        <v>0.5</v>
-      </c>
-      <c r="I5">
-        <v>0.5</v>
-      </c>
-      <c r="K5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1102</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1103</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
+      <c r="L3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -881,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CED58E7-AF13-4BCE-AEF1-286B96A15B6B}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -902,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -935,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -946,151 +866,152 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>65</v>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1484FE1-F450-4B66-BDD2-1534F2449BE2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{DB1F79C8-CF6B-40FB-9CCB-05E5A42E834B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Npc" sheetId="1" r:id="rId1"/>
     <sheet name="디스크립션" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,201 +77,229 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>attack_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no107_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no107_02</t>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넘버107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넘버108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임에 노출될 Npc의 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc에 종속된 Animset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc의 공격 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melee , Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격의 부가 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc가 가지고 있는 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(skill_01), (skill_02), …(Skill_n)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc의 등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooltime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc의 총 체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc의 기본 공격 쿨타임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc의 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 타입에 따른 사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recognize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recognize_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE, FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_function</t>
+  </si>
+  <si>
+    <t>attack_function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nontarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19_DeadlyAttack)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19_CriticalHit)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attack_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no107_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no107_02</t>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넘버107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넘버108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임에 노출될 Npc의 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Npc에 종속된 Animset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Npc의 공격 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Melee , Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격의 부가 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc가 가지고 있는 스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(skill_01), (skill_02), …(Skill_n)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc의 등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack_damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooltime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc의 총 체력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc의 기본 공격 쿨타임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc의 공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 타입에 따른 사거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recognize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recognize_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인식 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인식 범위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUE, FALSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack_function</t>
-  </si>
-  <si>
-    <t>attack_function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nontarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(19_DeadlyAttack)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(19_CriticalHit)}</t>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19_Badbomb)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -283,7 +310,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -652,16 +679,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA97BC6B-A267-437C-A2B5-1E3B9882BB03}">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -678,115 +707,156 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s">
         <v>50</v>
-      </c>
-      <c r="N1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1001</v>
+        <v>19101</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K2">
         <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
       </c>
       <c r="N2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1002</v>
+        <v>19102</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3">
         <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>19103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>5</v>
       </c>
     </row>
@@ -798,11 +868,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CED58E7-AF13-4BCE-AEF1-286B96A15B6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -822,7 +892,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -855,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -866,147 +936,147 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
         <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
         <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33DE5D8-257B-44FE-B15D-8C0089AC37AF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Npc" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,13 +305,29 @@
   </si>
   <si>
     <t>mob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackspeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19101, 100)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -679,11 +696,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -693,7 +710,7 @@
     <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -736,8 +753,17 @@
       <c r="N1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>19101</v>
       </c>
@@ -777,8 +803,17 @@
       <c r="N2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>19102</v>
       </c>
@@ -818,8 +853,17 @@
       <c r="N3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>19103</v>
       </c>
@@ -858,6 +902,15 @@
       </c>
       <c r="N4">
         <v>5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -868,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33DE5D8-257B-44FE-B15D-8C0089AC37AF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFE4056-C51A-4E3E-BD32-A037371E85BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,6 +321,10 @@
   </si>
   <si>
     <t>{(19101, 100)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
@@ -710,7 +714,7 @@
     <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -762,8 +766,11 @@
       <c r="Q1" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>19101</v>
       </c>
@@ -812,8 +819,11 @@
       <c r="Q2" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>19102</v>
       </c>
@@ -862,8 +872,11 @@
       <c r="Q3" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>19103</v>
       </c>
@@ -911,6 +924,9 @@
       </c>
       <c r="Q4" s="1" t="s">
         <v>74</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFE4056-C51A-4E3E-BD32-A037371E85BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77437D51-E13A-4477-AFCD-8951EB552B15}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Npc" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,6 +325,46 @@
   </si>
   <si>
     <t>armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드랍 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -938,10 +978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:E16"/>
+  <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1148,6 +1188,62 @@
         <v>54</v>
       </c>
     </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77437D51-E13A-4477-AFCD-8951EB552B15}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Npc" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attack_damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cooltime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,10 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>melee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,18 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackspeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>drop_table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,10 +303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>armor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,13 +340,57 @@
   </si>
   <si>
     <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -740,15 +759,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="13.625" customWidth="1"/>
     <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
@@ -774,13 +795,13 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -792,22 +813,22 @@
         <v>19</v>
       </c>
       <c r="M1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
         <v>49</v>
       </c>
-      <c r="N1" t="s">
-        <v>50</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -827,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -836,13 +857,13 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K2">
         <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
@@ -857,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R2" s="1">
         <v>1</v>
@@ -874,13 +895,13 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -889,13 +910,13 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3">
         <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -910,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
@@ -921,19 +942,19 @@
         <v>19103</v>
       </c>
       <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
         <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -942,13 +963,13 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K4">
         <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -963,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R4" s="1">
         <v>1</v>
@@ -977,11 +998,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1070,7 +1091,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -1081,7 +1102,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
@@ -1095,10 +1116,10 @@
         <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>33</v>
@@ -1109,13 +1130,13 @@
         <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
@@ -1134,21 +1155,21 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -1162,86 +1183,86 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A83BD0-8CFF-4361-9AC7-6E414F746F82}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Npc" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>melee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,25 +246,6 @@
   </si>
   <si>
     <t>attack_function</t>
-  </si>
-  <si>
-    <t>attack_function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nontarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(19_DeadlyAttack)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(19_CriticalHit)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -283,18 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(19_Badbomb)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>drop_table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,14 +309,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SPD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ATS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,38 +329,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mob</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>style_tube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enhancer_tube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooler_tube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no107_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no107_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no107_cooler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no108_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no108_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no108_cooler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jake_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jake_enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jake_cooler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -759,23 +757,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -789,205 +780,133 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>19101</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
       <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="K2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>19102</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
       <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>84</v>
       </c>
       <c r="J3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>19103</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
-      <c r="I4">
-        <v>1</v>
+      <c r="I4" t="s">
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s">
         <v>89</v>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1</v>
+      <c r="L4" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -998,7 +917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1022,7 +941,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -1055,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -1066,203 +985,203 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
         <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A83BD0-8CFF-4361-9AC7-6E414F746F82}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883CD1EA-2616-4261-9F86-6149F0417B56}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,51 +337,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>style_tube</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enhancer_tube</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooler_tube</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no107_style</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no107_enhancer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no107_cooler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no108_style</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no108_enhancer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no108_cooler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jake_style</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jake_enhancer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jake_cooler</t>
+    <t>skill_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19_DeadlyAttack)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19_CriticalHit)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19_Badbomb)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,15 +726,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -794,17 +762,11 @@
       <c r="I1" t="s">
         <v>78</v>
       </c>
-      <c r="J1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>19101</v>
       </c>
@@ -827,19 +789,13 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>19102</v>
       </c>
@@ -862,19 +818,13 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>19103</v>
       </c>
@@ -897,15 +847,9 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>60</v>
       </c>
     </row>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883CD1EA-2616-4261-9F86-6149F0417B56}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B7A434-7316-4780-A0E1-A05695151E82}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,10 +337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{(19_DeadlyAttack)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,6 +346,22 @@
   </si>
   <si>
     <t>{(19_Badbomb)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameKor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recognizeValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,7 +741,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -742,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -757,13 +769,13 @@
         <v>47</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -789,7 +801,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>60</v>
@@ -818,7 +830,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>60</v>
@@ -847,7 +859,7 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>60</v>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B7A434-7316-4780-A0E1-A05695151E82}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Npc" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,22 +252,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제이크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>drop_table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(19101, 100)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,10 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(19_Badbomb)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nameKor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,13 +345,77 @@
   </si>
   <si>
     <t>dropTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jake_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jake_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썩은쥐돌이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엉성한쥐돌이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19_jakebounce)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19_jakerange)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(1100,5),(2100,5),(3100,5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(1100,5),(2101,5),(3100,5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(1102,5),(2102,5),(3101,5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(1101,5),(2101,5),(3102,5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doncina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈시나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19_MustleMustle),(19_HustleHustle)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(1103,5),(2100,5),(3101,5),(1101,5),(2101,5),(3100,5),(4101,5)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -737,14 +784,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -754,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -769,18 +822,18 @@
         <v>47</v>
       </c>
       <c r="H1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>19101</v>
+        <v>19100</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -789,10 +842,10 @@
         <v>19</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -801,15 +854,15 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>19102</v>
+        <v>19101</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -818,10 +871,10 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -830,27 +883,27 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>19103</v>
+        <v>19102</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -859,10 +912,68 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>86</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>19103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>19200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -873,11 +984,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -991,7 +1102,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>45</v>
@@ -1033,7 +1144,7 @@
         <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>42</v>
@@ -1086,13 +1197,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>56</v>
@@ -1100,13 +1211,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>56</v>
@@ -1114,30 +1225,30 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3DB2C4-1D16-4FED-BE4B-411AB8D906DE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Npc" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,7 +416,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -784,22 +785,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -810,28 +811,25 @@
         <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>19100</v>
       </c>
@@ -841,26 +839,26 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="E2">
+      <c r="D2">
         <v>50</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="G2" t="b">
+      <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>19101</v>
       </c>
@@ -870,26 +868,26 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
+      <c r="D3">
         <v>50</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>74</v>
       </c>
-      <c r="G3" t="b">
+      <c r="F3" t="b">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>19102</v>
       </c>
@@ -899,26 +897,26 @@
       <c r="C4" t="s">
         <v>83</v>
       </c>
-      <c r="E4">
+      <c r="D4">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>73</v>
       </c>
-      <c r="G4" t="b">
+      <c r="F4" t="b">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>19103</v>
       </c>
@@ -928,26 +926,26 @@
       <c r="C5" t="s">
         <v>84</v>
       </c>
-      <c r="E5">
+      <c r="D5">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>85</v>
       </c>
-      <c r="G5" t="b">
+      <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>19200</v>
       </c>
@@ -957,22 +955,22 @@
       <c r="C6" t="s">
         <v>93</v>
       </c>
-      <c r="E6">
+      <c r="D6">
         <v>100</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>94</v>
       </c>
-      <c r="G6" t="b">
+      <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="G6">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -984,7 +982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChunJ\Desktop\울프팩\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577F7495-D630-42D8-AD5C-7BBC1E5C1906}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11172" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="디스크립션" sheetId="2" r:id="rId1"/>
-    <sheet name="Npc" sheetId="1" r:id="rId2"/>
+    <sheet name="Npc" sheetId="1" r:id="rId1"/>
+    <sheet name="디스크립션" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,14 +338,30 @@
   </si>
   <si>
     <t>고장난 코뱃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깔끔한 클리너</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,13 +377,35 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -383,11 +422,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,193 +748,301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="139.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>19100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>0.4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>19101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F3">
+        <v>0.4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>19102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>19103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>19200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>19104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>19105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -900,231 +1053,193 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="G13:H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" customWidth="1"/>
-    <col min="8" max="8" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.09765625" customWidth="1"/>
-    <col min="10" max="10" width="36.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="139.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>19100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>0.4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>19101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>0.4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>19102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4">
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>19103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5">
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>19200</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>55</v>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577F7495-D630-42D8-AD5C-7BBC1E5C1906}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11172"/>
   </bookViews>
   <sheets>
     <sheet name="Npc" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,18 +348,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클리너</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깔끔한 클리너</t>
+    <t>청소부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">불량한 청소부 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mingkies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밍키즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19_mingkies)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19_cleaner)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19_cleanerR)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(1101,2),(1107,2),(2103,2),(2104,2),(3100,2),(3101,2)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -748,24 +775,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" customWidth="1"/>
-    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" customWidth="1"/>
-    <col min="10" max="10" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="139.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" customWidth="1"/>
+    <col min="8" max="8" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.09765625" customWidth="1"/>
+    <col min="10" max="10" width="36.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="139.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -800,7 +827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>19100</v>
       </c>
@@ -835,7 +862,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>19101</v>
       </c>
@@ -870,7 +897,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>19102</v>
       </c>
@@ -905,7 +932,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>19103</v>
       </c>
@@ -940,7 +967,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>19200</v>
       </c>
@@ -975,7 +1002,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>19104</v>
       </c>
@@ -1004,13 +1031,13 @@
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>19105</v>
       </c>
@@ -1039,10 +1066,45 @@
         <v>5</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>19106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1053,20 +1115,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1080,7 +1142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>56</v>
       </c>
@@ -1092,7 +1154,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1104,7 +1166,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1116,7 +1178,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>57</v>
       </c>
@@ -1130,7 +1192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>58</v>
       </c>
@@ -1144,7 +1206,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>59</v>
       </c>
@@ -1158,7 +1220,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>64</v>
       </c>
@@ -1172,7 +1234,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
@@ -1186,7 +1248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>60</v>
       </c>
@@ -1200,7 +1262,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>66</v>
       </c>
@@ -1214,7 +1276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
         <v>61</v>
       </c>
@@ -1228,7 +1290,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>67</v>
       </c>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C7E7B5-9CFB-42E4-8632-681411A368D5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11172"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Npc" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,13 +382,93 @@
   </si>
   <si>
     <t>{(1101,2),(1107,2),(2103,2),(2104,2),(3100,2),(3101,2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_cat_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사가운 고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_cat_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방독면 고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_pitbull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핏불 경비원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_owl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부영이 연구원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_crow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>까마귀 연구원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도롱뇽 소각장 인부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_salamander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_carbannog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카르바노그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_tim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_madbuddy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매드버디</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,7 +502,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +512,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -460,6 +547,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,24 +865,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.69921875" customWidth="1"/>
-    <col min="8" max="8" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.09765625" customWidth="1"/>
-    <col min="10" max="10" width="36.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="139.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="139.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -827,7 +917,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>19100</v>
       </c>
@@ -862,7 +952,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>19101</v>
       </c>
@@ -897,7 +987,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>19102</v>
       </c>
@@ -932,7 +1022,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>19103</v>
       </c>
@@ -967,7 +1057,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>19200</v>
       </c>
@@ -1002,7 +1092,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>19104</v>
       </c>
@@ -1037,7 +1127,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>19105</v>
       </c>
@@ -1072,7 +1162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>19106</v>
       </c>
@@ -1105,6 +1195,356 @@
       </c>
       <c r="K9" s="1" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>13100</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="4">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>13101</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="4">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>13102</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="4">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>5</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>13103</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="4">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>5</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13104</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="4">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>5</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>13105</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="4">
+        <v>30</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>5</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>13106</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="4">
+        <v>100</v>
+      </c>
+      <c r="E16" s="4">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>10</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>13107</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="4">
+        <v>100</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>10</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>13108</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="4">
+        <v>100</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>10</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>13109</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="4">
+        <v>100</v>
+      </c>
+      <c r="E19" s="4">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>10</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1115,20 +1555,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1142,7 +1582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>56</v>
       </c>
@@ -1154,7 +1594,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1166,7 +1606,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1178,7 +1618,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>57</v>
       </c>
@@ -1192,7 +1632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>58</v>
       </c>
@@ -1206,7 +1646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>59</v>
       </c>
@@ -1220,7 +1660,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>64</v>
       </c>
@@ -1234,7 +1674,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
@@ -1248,7 +1688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>60</v>
       </c>
@@ -1262,7 +1702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>66</v>
       </c>
@@ -1276,7 +1716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>61</v>
       </c>
@@ -1290,7 +1730,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>67</v>
       </c>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C7E7B5-9CFB-42E4-8632-681411A368D5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0A4AA6-027F-4250-830A-0AEEAF1C9E2A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,14 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cleaner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cleaner_R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>청소부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,10 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mingkies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>밍키즈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,6 +450,18 @@
   </si>
   <si>
     <t>매드버디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleaner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CleanerR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mingkies</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -869,7 +869,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1097,10 +1097,10 @@
         <v>19104</v>
       </c>
       <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
         <v>79</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
       </c>
       <c r="D7">
         <v>70</v>
@@ -1121,7 +1121,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>54</v>
@@ -1132,10 +1132,10 @@
         <v>19105</v>
       </c>
       <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
         <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
       </c>
       <c r="D8">
         <v>70</v>
@@ -1156,7 +1156,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>54</v>
@@ -1167,10 +1167,10 @@
         <v>19106</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D9">
         <v>50</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -1191,10 +1191,10 @@
         <v>30</v>
       </c>
       <c r="J9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1202,10 +1202,10 @@
         <v>13100</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="4">
         <v>30</v>
@@ -1237,10 +1237,10 @@
         <v>13101</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D11" s="4">
         <v>30</v>
@@ -1272,10 +1272,10 @@
         <v>13102</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" s="4">
         <v>30</v>
@@ -1307,10 +1307,10 @@
         <v>13103</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D13" s="4">
         <v>30</v>
@@ -1342,10 +1342,10 @@
         <v>13104</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D14" s="4">
         <v>30</v>
@@ -1377,10 +1377,10 @@
         <v>13105</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D15" s="4">
         <v>30</v>
@@ -1412,10 +1412,10 @@
         <v>13106</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D16" s="4">
         <v>100</v>
@@ -1447,10 +1447,10 @@
         <v>13107</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D17" s="4">
         <v>100</v>
@@ -1482,10 +1482,10 @@
         <v>13108</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D18" s="4">
         <v>100</v>
@@ -1517,10 +1517,10 @@
         <v>13109</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D19" s="4">
         <v>100</v>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0A4AA6-027F-4250-830A-0AEEAF1C9E2A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4964CC1-5E0D-461B-942D-B4883DE11F81}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="223">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,18 +425,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카르바노그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>태그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13_tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -449,10 +437,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>매드버디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cleaner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,6 +446,468 @@
   </si>
   <si>
     <t>Mingkies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_weasel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>족제비 소매치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob</t>
+  </si>
+  <si>
+    <t>{(19_jakerange)}</t>
+  </si>
+  <si>
+    <t>{(1101,2),(1107,2),(2101,2),(2103,2),(3100,1),(3101,1),(3102,1),(3103,1),(3104,1),(3105,1)}</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>{(19_MustleMustle),(19_HustleHustle)}</t>
+  </si>
+  <si>
+    <t>{(1103,2),(1105,2),(2105,2),(2106,2),(2108,2),(3100,1),(3101,1),(3102,1),(3103,1),(3104,1),(3105,1),(3106,1),(3107,1),(3108,1),(3109,1),(3110,1),(3111,1)}</t>
+  </si>
+  <si>
+    <t>18_chicken_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_chicken_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_rakoon_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_rakoon_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭 불량배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭 칼잡이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라쿤 정비공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라쿤 용접공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17_mole_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17_mole_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17_boar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17_bat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17_turtle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17_anteater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_camek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_logan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카멕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두더지 곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두더지 폭탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맷돼지 현장감독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박쥐 현장감독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거북이 삽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개미핥기 지질학자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_scandal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17_zico</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17_coal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17_handless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_bloom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_alliy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블룸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16_hyena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16_salamander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16_bull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16_buffalo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16_pangolin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16_reno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이에나 렌치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너구리 용접공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도마뱀 영선공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물소 거대 렌치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천산갑 세공사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16_cotton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16_kimchr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15_deer_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15_deer_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사슴 목회자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사슴 수녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15_Polarbear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북극곰 신부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15_Pumanus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이단심문관 퓨마누스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15_goregoat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법황 고어고트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광부 대장 지코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_bear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불곰 개틀링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_dog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도베르만 스팀 라이플</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_buffalo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버팔로 방패병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 의무병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_monkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원숭이 관측병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_salamander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 도마뱀 화염 방사병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_Strict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리트 가드 스트릭트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_Floyd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관제탑 관리관 플로이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_Anderson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앤더슨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_Wyndham</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈덤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_Blanchard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜차드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_Flair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_chamelon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_bufflo_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_bufflo_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_Heavy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보급 관리관 헤비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_Engine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1급 특무관 엔진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_Nautilus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함장 노틸러스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버팔로 갑옷 수리관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카멜레온 권총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12_Penguin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12_Oswald</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12_Tasha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공장장 오스왈드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수 타샤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12_Reindeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순록 귀족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭귄 귀족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실험체 카르바노그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구 시설관 태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상황 통제관 팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주임 연구관 매드버디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노조스 리더 킴치르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노조스 간부 코튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영선 반장 레노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채광 설비관 핸드리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광산 통제관 콜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +915,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,22 +933,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,13 +948,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFE569C2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,20 +1009,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,6 +1049,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF33CCCC"/>
+      <color rgb="FFE569C2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -866,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -877,9 +1374,9 @@
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.75" customWidth="1"/>
     <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" customWidth="1"/>
-    <col min="10" max="10" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="139.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="17.25" customWidth="1"/>
+    <col min="11" max="11" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1097,7 +1594,7 @@
         <v>19104</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -1120,10 +1617,10 @@
       <c r="I7">
         <v>3</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1132,7 +1629,7 @@
         <v>19105</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
@@ -1155,10 +1652,10 @@
       <c r="I8">
         <v>5</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1167,7 +1664,7 @@
         <v>19106</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
         <v>81</v>
@@ -1197,354 +1694,2244 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>19107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>19108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>13100</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D12" s="2">
         <v>30</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E12" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="F12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>5</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="H12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K12" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>13101</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D13" s="2">
         <v>30</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E13" s="2">
         <v>3</v>
       </c>
-      <c r="F11" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="F13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
-        <v>5</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="H13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K13" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>13102</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D14" s="2">
         <v>30</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E14" s="2">
         <v>3</v>
       </c>
-      <c r="F12" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="F14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
-        <v>5</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="H14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>5</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K14" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>13103</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D15" s="2">
         <v>30</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E15" s="2">
         <v>3</v>
       </c>
-      <c r="F13" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="F15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4">
-        <v>5</v>
-      </c>
-      <c r="J13" s="4" t="s">
+      <c r="H15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>5</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K15" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>13104</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D16" s="2">
         <v>30</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E16" s="2">
         <v>3</v>
       </c>
-      <c r="F14" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="F16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4">
-        <v>5</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="H16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K16" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>13105</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D17" s="2">
         <v>30</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E17" s="2">
         <v>3</v>
       </c>
-      <c r="F15" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="F17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <v>5</v>
-      </c>
-      <c r="J15" s="4" t="s">
+      <c r="H17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>5</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K17" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>13106</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C18" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" s="2">
         <v>100</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>10</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>13107</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="4">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="C19" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="2">
+        <v>100</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
-        <v>10</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="H19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>10</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K19" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>13107</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="4" t="s">
+    <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>13108</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="4">
+      <c r="C20" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="2">
         <v>100</v>
       </c>
-      <c r="E17" s="4">
-        <v>10</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4">
-        <v>10</v>
-      </c>
-      <c r="J17" s="4" t="s">
+      <c r="H20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>10</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K20" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>13108</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="4" t="s">
+    <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>13109</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="4">
+      <c r="C21" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" s="2">
         <v>100</v>
       </c>
-      <c r="E18" s="4">
-        <v>10</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4">
-        <v>10</v>
-      </c>
-      <c r="J18" s="4" t="s">
+      <c r="H21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>10</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K21" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>13109</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="4" t="s">
+    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>18100</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="4">
+      <c r="C22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="3">
+        <v>30</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>18101</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="3">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>18102</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="3">
+        <v>30</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>18103</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="3">
+        <v>30</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <v>5</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>18104</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="3">
+        <v>30</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>18105</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="3">
         <v>100</v>
       </c>
-      <c r="E19" s="4">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4">
-        <v>10</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>55</v>
+      <c r="E27" s="3">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>10</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>18106</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="3">
+        <v>100</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>10</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>18107</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="3">
+        <v>100</v>
+      </c>
+      <c r="E29" s="3">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>17100</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="4">
+        <v>30</v>
+      </c>
+      <c r="E30" s="4">
+        <v>3</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>5</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>17101</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="4">
+        <v>30</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>5</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>17102</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="4">
+        <v>30</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4">
+        <v>5</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>17103</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="4">
+        <v>30</v>
+      </c>
+      <c r="E33" s="4">
+        <v>3</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4">
+        <v>5</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>17104</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="4">
+        <v>30</v>
+      </c>
+      <c r="E34" s="4">
+        <v>3</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4">
+        <v>5</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>17105</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="4">
+        <v>30</v>
+      </c>
+      <c r="E35" s="4">
+        <v>3</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4">
+        <v>5</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>17106</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="4">
+        <v>100</v>
+      </c>
+      <c r="E36" s="4">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4">
+        <v>10</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>17107</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D37" s="4">
+        <v>100</v>
+      </c>
+      <c r="E37" s="4">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4">
+        <v>10</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>17108</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D38" s="4">
+        <v>100</v>
+      </c>
+      <c r="E38" s="4">
+        <v>10</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4">
+        <v>10</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>16100</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="6">
+        <v>30</v>
+      </c>
+      <c r="E39" s="6">
+        <v>3</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" s="6">
+        <v>5</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>16101</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="6">
+        <v>30</v>
+      </c>
+      <c r="E40" s="6">
+        <v>3</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" s="6">
+        <v>5</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>16102</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="6">
+        <v>30</v>
+      </c>
+      <c r="E41" s="6">
+        <v>3</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H41" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" s="6">
+        <v>5</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>16103</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="6">
+        <v>30</v>
+      </c>
+      <c r="E42" s="6">
+        <v>3</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" s="6">
+        <v>5</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>16104</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" s="6">
+        <v>30</v>
+      </c>
+      <c r="E43" s="6">
+        <v>3</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H43" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" s="6">
+        <v>5</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>16105</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D44" s="6">
+        <v>100</v>
+      </c>
+      <c r="E44" s="6">
+        <v>10</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" s="6">
+        <v>10</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>16106</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" s="6">
+        <v>100</v>
+      </c>
+      <c r="E45" s="6">
+        <v>10</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H45" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" s="6">
+        <v>10</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>16107</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D46" s="6">
+        <v>100</v>
+      </c>
+      <c r="E46" s="6">
+        <v>10</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" s="6">
+        <v>10</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>15100</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="5">
+        <v>30</v>
+      </c>
+      <c r="E47" s="5">
+        <v>3</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H47" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" s="5">
+        <v>5</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>15101</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="5">
+        <v>30</v>
+      </c>
+      <c r="E48" s="5">
+        <v>3</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="5">
+        <v>5</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>15102</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="5">
+        <v>30</v>
+      </c>
+      <c r="E49" s="5">
+        <v>3</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H49" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" s="5">
+        <v>5</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>15103</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="5">
+        <v>100</v>
+      </c>
+      <c r="E50" s="5">
+        <v>10</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H50" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" s="5">
+        <v>10</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>15104</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="5">
+        <v>100</v>
+      </c>
+      <c r="E51" s="5">
+        <v>10</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H51" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" s="5">
+        <v>10</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>14100</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="7">
+        <v>30</v>
+      </c>
+      <c r="E52" s="7">
+        <v>3</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H52" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" s="7">
+        <v>5</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>14101</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="7">
+        <v>30</v>
+      </c>
+      <c r="E53" s="7">
+        <v>3</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H53" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" s="7">
+        <v>5</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>14102</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="7">
+        <v>30</v>
+      </c>
+      <c r="E54" s="7">
+        <v>3</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H54" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" s="7">
+        <v>5</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>14103</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" s="7">
+        <v>30</v>
+      </c>
+      <c r="E55" s="7">
+        <v>3</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H55" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" s="7">
+        <v>5</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>14104</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" s="7">
+        <v>30</v>
+      </c>
+      <c r="E56" s="7">
+        <v>3</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H56" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" s="7">
+        <v>5</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>14105</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="7">
+        <v>100</v>
+      </c>
+      <c r="E57" s="7">
+        <v>10</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H57" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" s="7">
+        <v>10</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>14106</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D58" s="7">
+        <v>100</v>
+      </c>
+      <c r="E58" s="7">
+        <v>10</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H58" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" s="7">
+        <v>10</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>14107</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D59" s="7">
+        <v>100</v>
+      </c>
+      <c r="E59" s="7">
+        <v>10</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H59" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" s="7">
+        <v>10</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>14108</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" s="7">
+        <v>100</v>
+      </c>
+      <c r="E60" s="7">
+        <v>10</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H60" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" s="7">
+        <v>10</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>14109</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D61" s="7">
+        <v>100</v>
+      </c>
+      <c r="E61" s="7">
+        <v>10</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H61" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" s="7">
+        <v>10</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>14110</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" s="7">
+        <v>100</v>
+      </c>
+      <c r="E62" s="7">
+        <v>10</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H62" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" s="7">
+        <v>10</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>14111</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63" s="7">
+        <v>100</v>
+      </c>
+      <c r="E63" s="7">
+        <v>10</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H63" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" s="7">
+        <v>10</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <v>13100</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" s="9">
+        <v>30</v>
+      </c>
+      <c r="E64" s="9">
+        <v>3</v>
+      </c>
+      <c r="F64" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H64" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" s="9">
+        <v>5</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
+        <v>13101</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D65" s="9">
+        <v>30</v>
+      </c>
+      <c r="E65" s="9">
+        <v>3</v>
+      </c>
+      <c r="F65" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H65" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" s="9">
+        <v>5</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <v>13102</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66" s="9">
+        <v>30</v>
+      </c>
+      <c r="E66" s="9">
+        <v>3</v>
+      </c>
+      <c r="F66" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H66" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" s="9">
+        <v>5</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
+        <v>13103</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D67" s="9">
+        <v>30</v>
+      </c>
+      <c r="E67" s="9">
+        <v>3</v>
+      </c>
+      <c r="F67" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H67" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" s="9">
+        <v>5</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
+        <v>13104</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" s="9">
+        <v>100</v>
+      </c>
+      <c r="E68" s="9">
+        <v>10</v>
+      </c>
+      <c r="F68" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H68" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" s="9">
+        <v>10</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
+        <v>13105</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" s="9">
+        <v>100</v>
+      </c>
+      <c r="E69" s="9">
+        <v>10</v>
+      </c>
+      <c r="F69" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H69" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" s="9">
+        <v>10</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="8">
+        <v>12100</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="8">
+        <v>30</v>
+      </c>
+      <c r="E70" s="8">
+        <v>3</v>
+      </c>
+      <c r="F70" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H70" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" s="8">
+        <v>5</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="8">
+        <v>12101</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" s="8">
+        <v>30</v>
+      </c>
+      <c r="E71" s="8">
+        <v>3</v>
+      </c>
+      <c r="F71" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H71" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" s="8">
+        <v>5</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
+        <v>12102</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" s="8">
+        <v>100</v>
+      </c>
+      <c r="E72" s="8">
+        <v>10</v>
+      </c>
+      <c r="F72" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H72" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" s="8">
+        <v>10</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="8">
+        <v>12103</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D73" s="8">
+        <v>100</v>
+      </c>
+      <c r="E73" s="8">
+        <v>10</v>
+      </c>
+      <c r="F73" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H73" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" s="8">
+        <v>10</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1559,7 +3946,7 @@
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4964CC1-5E0D-461B-942D-B4883DE11F81}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9B8A1A-F79B-4F5F-83D0-AACF8EE840FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="224">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,14 +571,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18_scandal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스캔달</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>17_zico</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -908,6 +900,18 @@
   </si>
   <si>
     <t>광산 통제관 콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12_scandal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도박사 스캔달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땜장이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -939,7 +943,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -994,6 +998,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1009,7 +1019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1040,7 +1050,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,6 +1064,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FF33CCCC"/>
       <color rgb="FFE569C2"/>
     </mruColors>
@@ -1363,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1414,353 +1428,353 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <v>19100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="10">
         <v>50</v>
       </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10">
         <v>0.4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>19101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <v>50</v>
       </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="10">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10">
         <v>0.4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3">
+      <c r="H3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>19102</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="10">
         <v>30</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="10">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="H4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
+        <v>5</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>19103</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="10">
         <v>30</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="10">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="H5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
+        <v>5</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
         <v>19200</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="10">
         <v>100</v>
       </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="10">
+        <v>10</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="H6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10">
+        <v>10</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>19104</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="10">
         <v>70</v>
       </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7">
+      <c r="H7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10">
         <v>3</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
         <v>19105</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="10">
         <v>70</v>
       </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8" s="10" t="s">
+      <c r="H8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10">
+        <v>5</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>19106</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="10">
         <v>50</v>
       </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="10">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9">
+      <c r="H9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
         <v>30</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>19107</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10">
+      <c r="D10" s="10">
         <v>100</v>
       </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" s="10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="H10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10">
+        <v>10</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>19108</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11">
+      <c r="D11" s="10">
         <v>100</v>
       </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="10">
+        <v>10</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="H11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10">
+        <v>10</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1982,7 +1996,7 @@
         <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D18" s="2">
         <v>100</v>
@@ -2017,7 +2031,7 @@
         <v>100</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D19" s="2">
         <v>100</v>
@@ -2052,7 +2066,7 @@
         <v>101</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D20" s="2">
         <v>100</v>
@@ -2087,7 +2101,7 @@
         <v>102</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D21" s="2">
         <v>100</v>
@@ -2363,11 +2377,11 @@
       <c r="A29" s="3">
         <v>18107</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>138</v>
+      <c r="B29" s="3">
+        <v>18</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D29" s="3">
         <v>100</v>
@@ -2609,10 +2623,10 @@
         <v>17106</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D36" s="4">
         <v>100</v>
@@ -2644,10 +2658,10 @@
         <v>17107</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D37" s="4">
         <v>100</v>
@@ -2679,10 +2693,10 @@
         <v>17108</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D38" s="4">
         <v>100</v>
@@ -2714,10 +2728,10 @@
         <v>16100</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D39" s="6">
         <v>30</v>
@@ -2749,10 +2763,10 @@
         <v>16101</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D40" s="6">
         <v>30</v>
@@ -2784,10 +2798,10 @@
         <v>16102</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D41" s="6">
         <v>30</v>
@@ -2819,10 +2833,10 @@
         <v>16103</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D42" s="6">
         <v>30</v>
@@ -2854,10 +2868,10 @@
         <v>16104</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D43" s="6">
         <v>30</v>
@@ -2889,10 +2903,10 @@
         <v>16105</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D44" s="6">
         <v>100</v>
@@ -2924,10 +2938,10 @@
         <v>16106</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D45" s="6">
         <v>100</v>
@@ -2959,10 +2973,10 @@
         <v>16107</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D46" s="6">
         <v>100</v>
@@ -2994,10 +3008,10 @@
         <v>15100</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="D47" s="5">
         <v>30</v>
@@ -3029,10 +3043,10 @@
         <v>15101</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="D48" s="5">
         <v>30</v>
@@ -3064,10 +3078,10 @@
         <v>15102</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D49" s="5">
         <v>30</v>
@@ -3099,10 +3113,10 @@
         <v>15103</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D50" s="5">
         <v>100</v>
@@ -3134,10 +3148,10 @@
         <v>15104</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D51" s="5">
         <v>100</v>
@@ -3169,10 +3183,10 @@
         <v>14100</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D52" s="7">
         <v>30</v>
@@ -3204,10 +3218,10 @@
         <v>14101</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D53" s="7">
         <v>30</v>
@@ -3239,10 +3253,10 @@
         <v>14102</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D54" s="7">
         <v>30</v>
@@ -3274,10 +3288,10 @@
         <v>14103</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D55" s="7">
         <v>30</v>
@@ -3309,10 +3323,10 @@
         <v>14104</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D56" s="7">
         <v>30</v>
@@ -3344,10 +3358,10 @@
         <v>14105</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D57" s="7">
         <v>100</v>
@@ -3379,10 +3393,10 @@
         <v>14106</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D58" s="7">
         <v>100</v>
@@ -3414,10 +3428,10 @@
         <v>14107</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D59" s="7">
         <v>100</v>
@@ -3449,10 +3463,10 @@
         <v>14108</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D60" s="7">
         <v>100</v>
@@ -3484,10 +3498,10 @@
         <v>14109</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D61" s="7">
         <v>100</v>
@@ -3519,10 +3533,10 @@
         <v>14110</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D62" s="7">
         <v>100</v>
@@ -3554,10 +3568,10 @@
         <v>14111</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D63" s="7">
         <v>100</v>
@@ -3589,10 +3603,10 @@
         <v>13100</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D64" s="9">
         <v>30</v>
@@ -3624,10 +3638,10 @@
         <v>13101</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D65" s="9">
         <v>30</v>
@@ -3659,10 +3673,10 @@
         <v>13102</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D66" s="9">
         <v>30</v>
@@ -3694,10 +3708,10 @@
         <v>13103</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D67" s="9">
         <v>30</v>
@@ -3729,10 +3743,10 @@
         <v>13104</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="9">
         <v>100</v>
@@ -3764,10 +3778,10 @@
         <v>13105</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="9">
         <v>100</v>
@@ -3799,10 +3813,10 @@
         <v>12100</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8">
         <v>30</v>
@@ -3834,10 +3848,10 @@
         <v>12101</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8">
         <v>30</v>
@@ -3869,10 +3883,10 @@
         <v>12102</v>
       </c>
       <c r="B72" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="D72" s="8">
         <v>100</v>
@@ -3904,10 +3918,10 @@
         <v>12103</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>210</v>
       </c>
       <c r="D73" s="8">
         <v>100</v>
@@ -3931,6 +3945,41 @@
         <v>112</v>
       </c>
       <c r="K73" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
+        <v>12103</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" s="8">
+        <v>100</v>
+      </c>
+      <c r="E74" s="8">
+        <v>10</v>
+      </c>
+      <c r="F74" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H74" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" s="8">
+        <v>10</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K74" s="8" t="s">
         <v>113</v>
       </c>
     </row>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9B8A1A-F79B-4F5F-83D0-AACF8EE840FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDDF064-0D6D-42AC-9EBA-C752C80CD323}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="223">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,13 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>no107_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no107_02</t>
-  </si>
-  <si>
     <t>grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,14 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jake_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jake_R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mob</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,14 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>doncina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈시나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,14 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고장난 코뱃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청소부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">불량한 청소부 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,90 +342,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13_cat_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의사가운 고양이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_cat_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방독면 고양이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_pitbull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>핏불 경비원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13_owl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부영이 연구원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13_crow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>까마귀 연구원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>도롱뇽 소각장 인부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_salamander</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_carbannog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_tim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_madbuddy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cleaner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CleanerR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mingkies</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18_weasel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>족제비 소매치기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mob</t>
   </si>
   <si>
@@ -491,30 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>닭 불량배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭 칼잡이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라쿤 정비공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라쿤 용접공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17_mole_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17_mole_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>17_boar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -531,22 +408,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18_camek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18_logan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카멕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>두더지 곡괭이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -555,14 +416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맷돼지 현장감독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박쥐 현장감독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>거북이 삽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -583,22 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19_bloom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19_alliy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블룸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에일리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16_hyena</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -911,7 +748,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>땜장이</t>
+    <t>땜장이 덴틴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중개상 카멕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KoVat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoVat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소뱃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rat Boy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rat Man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거대한 싸움꾼 돈시나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상금 사냥꾼 에일리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황제의 심복 블룸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깔끔한 청소부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은 손 스칼렛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cat Doctor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cat Nurse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PitBull Guard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr Owl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr Crow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flame Man Salamander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carbannog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Officer Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Officer Tim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr.MadBuddy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Great Fighter Don Cena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neat Sweep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bad Cleaner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head Hunter Ailliy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right-Hand Bloom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사 고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간호사 고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소각장 인부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소매치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼잡이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정비공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용접공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현장감독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mine Worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dealer Camek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tinker Dentin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pickpock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black Hand Scarlett</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1379,13 +1376,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.75" customWidth="1"/>
     <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.25" customWidth="1"/>
@@ -1401,31 +1399,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1433,10 +1431,10 @@
         <v>19100</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="D2" s="10">
         <v>50</v>
@@ -1448,7 +1446,7 @@
         <v>0.4</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2" s="10" t="b">
         <v>1</v>
@@ -1457,10 +1455,10 @@
         <v>3</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1468,10 +1466,10 @@
         <v>19101</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D3" s="10">
         <v>50</v>
@@ -1483,7 +1481,7 @@
         <v>0.4</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H3" s="10" t="b">
         <v>1</v>
@@ -1492,10 +1490,10 @@
         <v>3</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1503,10 +1501,10 @@
         <v>19102</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D4" s="10">
         <v>30</v>
@@ -1518,7 +1516,7 @@
         <v>0.5</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4" s="10" t="b">
         <v>1</v>
@@ -1527,10 +1525,10 @@
         <v>5</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1538,10 +1536,10 @@
         <v>19103</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D5" s="10">
         <v>30</v>
@@ -1553,7 +1551,7 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H5" s="10" t="b">
         <v>1</v>
@@ -1562,10 +1560,10 @@
         <v>5</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1573,10 +1571,10 @@
         <v>19200</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="D6" s="10">
         <v>100</v>
@@ -1588,19 +1586,19 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10">
+        <v>10</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="H6" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10">
-        <v>10</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1608,10 +1606,10 @@
         <v>19104</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="D7" s="10">
         <v>70</v>
@@ -1623,7 +1621,7 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="10" t="b">
         <v>1</v>
@@ -1632,10 +1630,10 @@
         <v>3</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1643,10 +1641,10 @@
         <v>19105</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D8" s="10">
         <v>70</v>
@@ -1658,7 +1656,7 @@
         <v>0.5</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" s="10" t="b">
         <v>1</v>
@@ -1667,10 +1665,10 @@
         <v>5</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1678,10 +1676,10 @@
         <v>19106</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D9" s="10">
         <v>50</v>
@@ -1693,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H9" s="10" t="b">
         <v>1</v>
@@ -1702,10 +1700,10 @@
         <v>30</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1713,10 +1711,10 @@
         <v>19107</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="D10" s="10">
         <v>100</v>
@@ -1728,19 +1726,19 @@
         <v>0.5</v>
       </c>
       <c r="G10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10">
+        <v>10</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="H10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10">
-        <v>10</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1748,10 +1746,10 @@
         <v>19108</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="D11" s="10">
         <v>100</v>
@@ -1763,19 +1761,19 @@
         <v>0.5</v>
       </c>
       <c r="G11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10">
+        <v>10</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="H11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10">
-        <v>10</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1783,10 +1781,10 @@
         <v>13100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="D12" s="2">
         <v>30</v>
@@ -1798,7 +1796,7 @@
         <v>0.5</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12" s="2" t="b">
         <v>1</v>
@@ -1807,10 +1805,10 @@
         <v>5</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1818,10 +1816,10 @@
         <v>13101</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="D13" s="2">
         <v>30</v>
@@ -1833,7 +1831,7 @@
         <v>0.5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13" s="2" t="b">
         <v>1</v>
@@ -1842,10 +1840,10 @@
         <v>5</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1853,10 +1851,10 @@
         <v>13102</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2">
         <v>30</v>
@@ -1868,7 +1866,7 @@
         <v>0.5</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14" s="2" t="b">
         <v>1</v>
@@ -1877,10 +1875,10 @@
         <v>5</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1888,10 +1886,10 @@
         <v>13103</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2">
         <v>30</v>
@@ -1903,7 +1901,7 @@
         <v>0.5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H15" s="2" t="b">
         <v>1</v>
@@ -1912,10 +1910,10 @@
         <v>5</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1923,10 +1921,10 @@
         <v>13104</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>198</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2">
         <v>30</v>
@@ -1938,7 +1936,7 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H16" s="2" t="b">
         <v>1</v>
@@ -1947,10 +1945,10 @@
         <v>5</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1958,10 +1956,10 @@
         <v>13105</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>98</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c r="D17" s="2">
         <v>30</v>
@@ -1973,7 +1971,7 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H17" s="2" t="b">
         <v>1</v>
@@ -1982,10 +1980,10 @@
         <v>5</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1993,10 +1991,10 @@
         <v>13106</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="D18" s="2">
         <v>100</v>
@@ -2008,19 +2006,19 @@
         <v>0.5</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>10</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="H18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2">
-        <v>10</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2028,10 +2026,10 @@
         <v>13107</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="D19" s="2">
         <v>100</v>
@@ -2043,19 +2041,19 @@
         <v>0.5</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>10</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="H19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>10</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2063,10 +2061,10 @@
         <v>13108</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="D20" s="2">
         <v>100</v>
@@ -2078,19 +2076,19 @@
         <v>0.5</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>10</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="H20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>10</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2098,10 +2096,10 @@
         <v>13109</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="D21" s="2">
         <v>100</v>
@@ -2113,19 +2111,19 @@
         <v>0.5</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>10</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="H21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>10</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2133,10 +2131,10 @@
         <v>18100</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="D22" s="3">
         <v>30</v>
@@ -2148,7 +2146,7 @@
         <v>0.5</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H22" s="3" t="b">
         <v>1</v>
@@ -2157,10 +2155,10 @@
         <v>5</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2168,10 +2166,10 @@
         <v>18101</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="D23" s="3">
         <v>30</v>
@@ -2183,7 +2181,7 @@
         <v>0.5</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H23" s="3" t="b">
         <v>1</v>
@@ -2192,10 +2190,10 @@
         <v>5</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2203,10 +2201,10 @@
         <v>18102</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="D24" s="3">
         <v>30</v>
@@ -2218,7 +2216,7 @@
         <v>0.5</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H24" s="3" t="b">
         <v>1</v>
@@ -2227,10 +2225,10 @@
         <v>5</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2238,10 +2236,10 @@
         <v>18103</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="D25" s="3">
         <v>30</v>
@@ -2253,7 +2251,7 @@
         <v>0.5</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H25" s="3" t="b">
         <v>1</v>
@@ -2262,10 +2260,10 @@
         <v>5</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2273,10 +2271,10 @@
         <v>18104</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="D26" s="3">
         <v>30</v>
@@ -2288,7 +2286,7 @@
         <v>0.5</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H26" s="3" t="b">
         <v>1</v>
@@ -2297,10 +2295,10 @@
         <v>5</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2308,10 +2306,10 @@
         <v>18105</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="D27" s="3">
         <v>100</v>
@@ -2323,7 +2321,7 @@
         <v>0.5</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H27" s="3" t="b">
         <v>1</v>
@@ -2332,10 +2330,10 @@
         <v>10</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2343,10 +2341,10 @@
         <v>18106</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="D28" s="3">
         <v>100</v>
@@ -2358,7 +2356,7 @@
         <v>0.5</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H28" s="3" t="b">
         <v>1</v>
@@ -2367,21 +2365,21 @@
         <v>10</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>18107</v>
       </c>
-      <c r="B29" s="3">
-        <v>18</v>
+      <c r="B29" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="D29" s="3">
         <v>100</v>
@@ -2393,7 +2391,7 @@
         <v>0.5</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H29" s="3" t="b">
         <v>1</v>
@@ -2402,10 +2400,10 @@
         <v>10</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2413,10 +2411,10 @@
         <v>17100</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="D30" s="4">
         <v>30</v>
@@ -2428,7 +2426,7 @@
         <v>0.5</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H30" s="4" t="b">
         <v>1</v>
@@ -2437,10 +2435,10 @@
         <v>5</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2448,10 +2446,10 @@
         <v>17101</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="D31" s="4">
         <v>30</v>
@@ -2463,7 +2461,7 @@
         <v>0.5</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H31" s="4" t="b">
         <v>1</v>
@@ -2472,10 +2470,10 @@
         <v>5</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2483,10 +2481,10 @@
         <v>17102</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="D32" s="4">
         <v>30</v>
@@ -2498,7 +2496,7 @@
         <v>0.5</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H32" s="4" t="b">
         <v>1</v>
@@ -2507,10 +2505,10 @@
         <v>5</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2518,10 +2516,10 @@
         <v>17103</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="D33" s="4">
         <v>30</v>
@@ -2533,7 +2531,7 @@
         <v>0.5</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H33" s="4" t="b">
         <v>1</v>
@@ -2542,10 +2540,10 @@
         <v>5</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2553,10 +2551,10 @@
         <v>17104</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="D34" s="4">
         <v>30</v>
@@ -2568,7 +2566,7 @@
         <v>0.5</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H34" s="4" t="b">
         <v>1</v>
@@ -2577,10 +2575,10 @@
         <v>5</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2588,10 +2586,10 @@
         <v>17105</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="D35" s="4">
         <v>30</v>
@@ -2603,7 +2601,7 @@
         <v>0.5</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H35" s="4" t="b">
         <v>1</v>
@@ -2612,10 +2610,10 @@
         <v>5</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2623,10 +2621,10 @@
         <v>17106</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="D36" s="4">
         <v>100</v>
@@ -2638,7 +2636,7 @@
         <v>0.5</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H36" s="4" t="b">
         <v>1</v>
@@ -2647,10 +2645,10 @@
         <v>10</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2658,10 +2656,10 @@
         <v>17107</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="D37" s="4">
         <v>100</v>
@@ -2673,7 +2671,7 @@
         <v>0.5</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H37" s="4" t="b">
         <v>1</v>
@@ -2682,10 +2680,10 @@
         <v>10</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2693,10 +2691,10 @@
         <v>17108</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="D38" s="4">
         <v>100</v>
@@ -2708,7 +2706,7 @@
         <v>0.5</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H38" s="4" t="b">
         <v>1</v>
@@ -2717,10 +2715,10 @@
         <v>10</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2728,10 +2726,10 @@
         <v>16100</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="D39" s="6">
         <v>30</v>
@@ -2743,7 +2741,7 @@
         <v>0.5</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H39" s="6" t="b">
         <v>1</v>
@@ -2752,10 +2750,10 @@
         <v>5</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2763,10 +2761,10 @@
         <v>16101</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="D40" s="6">
         <v>30</v>
@@ -2778,7 +2776,7 @@
         <v>0.5</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H40" s="6" t="b">
         <v>1</v>
@@ -2787,10 +2785,10 @@
         <v>5</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2798,10 +2796,10 @@
         <v>16102</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="D41" s="6">
         <v>30</v>
@@ -2813,7 +2811,7 @@
         <v>0.5</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H41" s="6" t="b">
         <v>1</v>
@@ -2822,10 +2820,10 @@
         <v>5</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2833,10 +2831,10 @@
         <v>16103</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="D42" s="6">
         <v>30</v>
@@ -2848,7 +2846,7 @@
         <v>0.5</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H42" s="6" t="b">
         <v>1</v>
@@ -2857,10 +2855,10 @@
         <v>5</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2868,10 +2866,10 @@
         <v>16104</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="D43" s="6">
         <v>30</v>
@@ -2883,7 +2881,7 @@
         <v>0.5</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H43" s="6" t="b">
         <v>1</v>
@@ -2892,10 +2890,10 @@
         <v>5</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2903,10 +2901,10 @@
         <v>16105</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="D44" s="6">
         <v>100</v>
@@ -2918,7 +2916,7 @@
         <v>0.5</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H44" s="6" t="b">
         <v>1</v>
@@ -2927,10 +2925,10 @@
         <v>10</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2938,10 +2936,10 @@
         <v>16106</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="D45" s="6">
         <v>100</v>
@@ -2953,7 +2951,7 @@
         <v>0.5</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H45" s="6" t="b">
         <v>1</v>
@@ -2962,10 +2960,10 @@
         <v>10</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2973,10 +2971,10 @@
         <v>16107</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="D46" s="6">
         <v>100</v>
@@ -2988,7 +2986,7 @@
         <v>0.5</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H46" s="6" t="b">
         <v>1</v>
@@ -2997,10 +2995,10 @@
         <v>10</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3008,10 +3006,10 @@
         <v>15100</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="D47" s="5">
         <v>30</v>
@@ -3023,7 +3021,7 @@
         <v>0.5</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H47" s="5" t="b">
         <v>1</v>
@@ -3032,10 +3030,10 @@
         <v>5</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3043,10 +3041,10 @@
         <v>15101</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="D48" s="5">
         <v>30</v>
@@ -3058,7 +3056,7 @@
         <v>0.5</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H48" s="5" t="b">
         <v>1</v>
@@ -3067,10 +3065,10 @@
         <v>5</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3078,10 +3076,10 @@
         <v>15102</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="D49" s="5">
         <v>30</v>
@@ -3093,7 +3091,7 @@
         <v>0.5</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H49" s="5" t="b">
         <v>1</v>
@@ -3102,10 +3100,10 @@
         <v>5</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3113,10 +3111,10 @@
         <v>15103</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="D50" s="5">
         <v>100</v>
@@ -3128,7 +3126,7 @@
         <v>0.5</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H50" s="5" t="b">
         <v>1</v>
@@ -3137,10 +3135,10 @@
         <v>10</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3148,10 +3146,10 @@
         <v>15104</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="D51" s="5">
         <v>100</v>
@@ -3163,7 +3161,7 @@
         <v>0.5</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H51" s="5" t="b">
         <v>1</v>
@@ -3172,10 +3170,10 @@
         <v>10</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3183,10 +3181,10 @@
         <v>14100</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="D52" s="7">
         <v>30</v>
@@ -3198,7 +3196,7 @@
         <v>0.5</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H52" s="7" t="b">
         <v>1</v>
@@ -3207,10 +3205,10 @@
         <v>5</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3218,10 +3216,10 @@
         <v>14101</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="D53" s="7">
         <v>30</v>
@@ -3233,7 +3231,7 @@
         <v>0.5</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H53" s="7" t="b">
         <v>1</v>
@@ -3242,10 +3240,10 @@
         <v>5</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3253,10 +3251,10 @@
         <v>14102</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="D54" s="7">
         <v>30</v>
@@ -3268,7 +3266,7 @@
         <v>0.5</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H54" s="7" t="b">
         <v>1</v>
@@ -3277,10 +3275,10 @@
         <v>5</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3288,10 +3286,10 @@
         <v>14103</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="D55" s="7">
         <v>30</v>
@@ -3303,7 +3301,7 @@
         <v>0.5</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H55" s="7" t="b">
         <v>1</v>
@@ -3312,10 +3310,10 @@
         <v>5</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3323,10 +3321,10 @@
         <v>14104</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="D56" s="7">
         <v>30</v>
@@ -3338,7 +3336,7 @@
         <v>0.5</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H56" s="7" t="b">
         <v>1</v>
@@ -3347,10 +3345,10 @@
         <v>5</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3358,10 +3356,10 @@
         <v>14105</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="D57" s="7">
         <v>100</v>
@@ -3373,7 +3371,7 @@
         <v>0.5</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H57" s="7" t="b">
         <v>1</v>
@@ -3382,10 +3380,10 @@
         <v>10</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3393,10 +3391,10 @@
         <v>14106</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="D58" s="7">
         <v>100</v>
@@ -3408,7 +3406,7 @@
         <v>0.5</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H58" s="7" t="b">
         <v>1</v>
@@ -3417,10 +3415,10 @@
         <v>10</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3428,10 +3426,10 @@
         <v>14107</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="D59" s="7">
         <v>100</v>
@@ -3443,7 +3441,7 @@
         <v>0.5</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H59" s="7" t="b">
         <v>1</v>
@@ -3452,10 +3450,10 @@
         <v>10</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3463,10 +3461,10 @@
         <v>14108</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="D60" s="7">
         <v>100</v>
@@ -3478,7 +3476,7 @@
         <v>0.5</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H60" s="7" t="b">
         <v>1</v>
@@ -3487,10 +3485,10 @@
         <v>10</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3498,10 +3496,10 @@
         <v>14109</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="D61" s="7">
         <v>100</v>
@@ -3513,7 +3511,7 @@
         <v>0.5</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H61" s="7" t="b">
         <v>1</v>
@@ -3522,10 +3520,10 @@
         <v>10</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3533,10 +3531,10 @@
         <v>14110</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="D62" s="7">
         <v>100</v>
@@ -3548,7 +3546,7 @@
         <v>0.5</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H62" s="7" t="b">
         <v>1</v>
@@ -3557,10 +3555,10 @@
         <v>10</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3568,10 +3566,10 @@
         <v>14111</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="D63" s="7">
         <v>100</v>
@@ -3583,7 +3581,7 @@
         <v>0.5</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H63" s="7" t="b">
         <v>1</v>
@@ -3592,10 +3590,10 @@
         <v>10</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3603,10 +3601,10 @@
         <v>13100</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="D64" s="9">
         <v>30</v>
@@ -3618,7 +3616,7 @@
         <v>0.5</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H64" s="9" t="b">
         <v>1</v>
@@ -3627,10 +3625,10 @@
         <v>5</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3638,10 +3636,10 @@
         <v>13101</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="D65" s="9">
         <v>30</v>
@@ -3653,7 +3651,7 @@
         <v>0.5</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H65" s="9" t="b">
         <v>1</v>
@@ -3662,10 +3660,10 @@
         <v>5</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3673,10 +3671,10 @@
         <v>13102</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="D66" s="9">
         <v>30</v>
@@ -3688,7 +3686,7 @@
         <v>0.5</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H66" s="9" t="b">
         <v>1</v>
@@ -3697,10 +3695,10 @@
         <v>5</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3708,10 +3706,10 @@
         <v>13103</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="D67" s="9">
         <v>30</v>
@@ -3723,7 +3721,7 @@
         <v>0.5</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H67" s="9" t="b">
         <v>1</v>
@@ -3732,10 +3730,10 @@
         <v>5</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3743,10 +3741,10 @@
         <v>13104</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="D68" s="9">
         <v>100</v>
@@ -3758,7 +3756,7 @@
         <v>0.5</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H68" s="9" t="b">
         <v>1</v>
@@ -3767,10 +3765,10 @@
         <v>10</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3778,10 +3776,10 @@
         <v>13105</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="D69" s="9">
         <v>100</v>
@@ -3793,7 +3791,7 @@
         <v>0.5</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H69" s="9" t="b">
         <v>1</v>
@@ -3802,10 +3800,10 @@
         <v>10</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3813,10 +3811,10 @@
         <v>12100</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="D70" s="8">
         <v>30</v>
@@ -3828,7 +3826,7 @@
         <v>0.5</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H70" s="8" t="b">
         <v>1</v>
@@ -3837,10 +3835,10 @@
         <v>5</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3848,10 +3846,10 @@
         <v>12101</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="D71" s="8">
         <v>30</v>
@@ -3863,7 +3861,7 @@
         <v>0.5</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H71" s="8" t="b">
         <v>1</v>
@@ -3872,10 +3870,10 @@
         <v>5</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3883,10 +3881,10 @@
         <v>12102</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="D72" s="8">
         <v>100</v>
@@ -3898,7 +3896,7 @@
         <v>0.5</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H72" s="8" t="b">
         <v>1</v>
@@ -3907,10 +3905,10 @@
         <v>10</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3918,10 +3916,10 @@
         <v>12103</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="D73" s="8">
         <v>100</v>
@@ -3933,7 +3931,7 @@
         <v>0.5</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H73" s="8" t="b">
         <v>1</v>
@@ -3942,10 +3940,10 @@
         <v>10</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3953,10 +3951,10 @@
         <v>12103</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="D74" s="8">
         <v>100</v>
@@ -3968,7 +3966,7 @@
         <v>0.5</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H74" s="8" t="b">
         <v>1</v>
@@ -3977,10 +3975,10 @@
         <v>10</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4015,12 +4013,12 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -4050,134 +4048,134 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8683FA6-753D-4D75-93C0-DDE641D18271}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BFE5C5-5F31-40A9-A43B-2E6AAE13EE8F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="223">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -905,6 +905,10 @@
   </si>
   <si>
     <t>nameEng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1370,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1381,12 +1385,13 @@
     <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="30.25" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
+    <col min="9" max="9" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1403,16 +1408,19 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>19100</v>
       </c>
@@ -1428,17 +1436,17 @@
       <c r="E2" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="10">
+      <c r="G2" s="10">
         <v>3</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>19101</v>
       </c>
@@ -1454,17 +1462,17 @@
       <c r="E3" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="10">
+      <c r="G3" s="10">
         <v>3</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>19102</v>
       </c>
@@ -1480,17 +1488,17 @@
       <c r="E4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="10">
-        <v>5</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="10">
+        <v>5</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>19103</v>
       </c>
@@ -1506,17 +1514,17 @@
       <c r="E5" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="10">
-        <v>5</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="10">
+        <v>5</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>19200</v>
       </c>
@@ -1532,17 +1540,17 @@
       <c r="E6" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="10">
+      <c r="G6" s="10">
         <v>10</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>19104</v>
       </c>
@@ -1558,17 +1566,17 @@
       <c r="E7" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="10">
+      <c r="G7" s="10">
         <v>3</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>19105</v>
       </c>
@@ -1584,17 +1592,17 @@
       <c r="E8" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="10">
-        <v>5</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10">
+        <v>5</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>19106</v>
       </c>
@@ -1610,17 +1618,17 @@
       <c r="E9" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="10">
+      <c r="G9" s="10">
         <v>30</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>19107</v>
       </c>
@@ -1636,17 +1644,17 @@
       <c r="E10" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="10">
+      <c r="G10" s="10">
         <v>10</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="I10" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>19108</v>
       </c>
@@ -1662,17 +1670,17 @@
       <c r="E11" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="10">
+      <c r="G11" s="10">
         <v>10</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="H11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="I11" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>13100</v>
       </c>
@@ -1688,17 +1696,17 @@
       <c r="E12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F12" s="2">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>13101</v>
       </c>
@@ -1714,17 +1722,17 @@
       <c r="E13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="2">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13102</v>
       </c>
@@ -1740,17 +1748,17 @@
       <c r="E14" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="2">
-        <v>5</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13103</v>
       </c>
@@ -1766,17 +1774,17 @@
       <c r="E15" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F15" s="2">
-        <v>5</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13104</v>
       </c>
@@ -1792,17 +1800,17 @@
       <c r="E16" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="2">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>13105</v>
       </c>
@@ -1818,17 +1826,17 @@
       <c r="E17" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F17" s="2">
-        <v>5</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>13106</v>
       </c>
@@ -1844,17 +1852,17 @@
       <c r="E18" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>10</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>13107</v>
       </c>
@@ -1870,17 +1878,17 @@
       <c r="E19" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
         <v>10</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>13108</v>
       </c>
@@ -1896,17 +1904,17 @@
       <c r="E20" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <v>10</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>13109</v>
       </c>
@@ -1922,17 +1930,17 @@
       <c r="E21" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>10</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>18100</v>
       </c>
@@ -1948,17 +1956,17 @@
       <c r="E22" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F22" s="3">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="3">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>18101</v>
       </c>
@@ -1974,17 +1982,17 @@
       <c r="E23" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F23" s="3">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="3">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>18102</v>
       </c>
@@ -2000,17 +2008,17 @@
       <c r="E24" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F24" s="3">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="3">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>18103</v>
       </c>
@@ -2026,17 +2034,17 @@
       <c r="E25" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F25" s="3">
-        <v>5</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="3">
+        <v>5</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>18104</v>
       </c>
@@ -2052,17 +2060,17 @@
       <c r="E26" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F26" s="3">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="3">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>18105</v>
       </c>
@@ -2078,17 +2086,17 @@
       <c r="E27" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>18106</v>
       </c>
@@ -2104,17 +2112,17 @@
       <c r="E28" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <v>10</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>18107</v>
       </c>
@@ -2130,17 +2138,17 @@
       <c r="E29" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>10</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>17100</v>
       </c>
@@ -2156,17 +2164,17 @@
       <c r="E30" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F30" s="4">
-        <v>5</v>
-      </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="4">
+        <v>5</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>17101</v>
       </c>
@@ -2182,17 +2190,17 @@
       <c r="E31" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F31" s="4">
-        <v>5</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="4">
+        <v>5</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>17102</v>
       </c>
@@ -2208,17 +2216,17 @@
       <c r="E32" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F32" s="4">
-        <v>5</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="4">
+        <v>5</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>17103</v>
       </c>
@@ -2234,17 +2242,17 @@
       <c r="E33" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F33" s="4">
-        <v>5</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="4">
+        <v>5</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>17104</v>
       </c>
@@ -2260,17 +2268,17 @@
       <c r="E34" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F34" s="4">
-        <v>5</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="4">
+        <v>5</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>17105</v>
       </c>
@@ -2286,17 +2294,17 @@
       <c r="E35" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F35" s="4">
-        <v>5</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="4">
+        <v>5</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>17106</v>
       </c>
@@ -2312,17 +2320,17 @@
       <c r="E36" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>10</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>17107</v>
       </c>
@@ -2338,17 +2346,17 @@
       <c r="E37" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>10</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>17108</v>
       </c>
@@ -2364,17 +2372,17 @@
       <c r="E38" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>10</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="I38" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>16100</v>
       </c>
@@ -2390,17 +2398,17 @@
       <c r="E39" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F39" s="6">
-        <v>5</v>
-      </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="6">
+        <v>5</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="I39" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>16101</v>
       </c>
@@ -2416,17 +2424,17 @@
       <c r="E40" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F40" s="6">
-        <v>5</v>
-      </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="6">
+        <v>5</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="I40" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>16102</v>
       </c>
@@ -2442,17 +2450,17 @@
       <c r="E41" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F41" s="6">
-        <v>5</v>
-      </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="6">
+        <v>5</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="I41" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>16103</v>
       </c>
@@ -2468,17 +2476,17 @@
       <c r="E42" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F42" s="6">
-        <v>5</v>
-      </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="6">
+        <v>5</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="I42" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>16104</v>
       </c>
@@ -2494,17 +2502,17 @@
       <c r="E43" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F43" s="6">
-        <v>5</v>
-      </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="6">
+        <v>5</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="I43" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>16105</v>
       </c>
@@ -2520,17 +2528,17 @@
       <c r="E44" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F44" s="6">
+      <c r="G44" s="6">
         <v>10</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="H44" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="I44" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>16106</v>
       </c>
@@ -2546,17 +2554,17 @@
       <c r="E45" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F45" s="6">
+      <c r="G45" s="6">
         <v>10</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="H45" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="I45" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>16107</v>
       </c>
@@ -2572,17 +2580,17 @@
       <c r="E46" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F46" s="6">
+      <c r="G46" s="6">
         <v>10</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="H46" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="I46" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>15100</v>
       </c>
@@ -2598,17 +2606,17 @@
       <c r="E47" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F47" s="5">
-        <v>5</v>
-      </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="5">
+        <v>5</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="I47" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>15101</v>
       </c>
@@ -2624,17 +2632,17 @@
       <c r="E48" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F48" s="5">
-        <v>5</v>
-      </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="5">
+        <v>5</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="I48" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>15102</v>
       </c>
@@ -2650,17 +2658,17 @@
       <c r="E49" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F49" s="5">
-        <v>5</v>
-      </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="5">
+        <v>5</v>
+      </c>
+      <c r="H49" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="I49" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>15103</v>
       </c>
@@ -2676,17 +2684,17 @@
       <c r="E50" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F50" s="5">
+      <c r="G50" s="5">
         <v>10</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="I50" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>15104</v>
       </c>
@@ -2702,17 +2710,17 @@
       <c r="E51" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F51" s="5">
+      <c r="G51" s="5">
         <v>10</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="H51" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="I51" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>14100</v>
       </c>
@@ -2728,17 +2736,17 @@
       <c r="E52" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F52" s="7">
-        <v>5</v>
-      </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="7">
+        <v>5</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="I52" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>14101</v>
       </c>
@@ -2754,17 +2762,17 @@
       <c r="E53" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F53" s="7">
-        <v>5</v>
-      </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="7">
+        <v>5</v>
+      </c>
+      <c r="H53" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="I53" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>14102</v>
       </c>
@@ -2780,17 +2788,17 @@
       <c r="E54" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F54" s="7">
-        <v>5</v>
-      </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="7">
+        <v>5</v>
+      </c>
+      <c r="H54" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="I54" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>14103</v>
       </c>
@@ -2806,17 +2814,17 @@
       <c r="E55" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F55" s="7">
-        <v>5</v>
-      </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="7">
+        <v>5</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="I55" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>14104</v>
       </c>
@@ -2832,17 +2840,17 @@
       <c r="E56" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F56" s="7">
-        <v>5</v>
-      </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="7">
+        <v>5</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="I56" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>14105</v>
       </c>
@@ -2858,17 +2866,17 @@
       <c r="E57" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F57" s="7">
+      <c r="G57" s="7">
         <v>10</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="H57" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="I57" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>14106</v>
       </c>
@@ -2884,17 +2892,17 @@
       <c r="E58" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F58" s="7">
+      <c r="G58" s="7">
         <v>10</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="H58" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="I58" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>14107</v>
       </c>
@@ -2910,17 +2918,17 @@
       <c r="E59" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F59" s="7">
+      <c r="G59" s="7">
         <v>10</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="H59" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="I59" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>14108</v>
       </c>
@@ -2936,17 +2944,17 @@
       <c r="E60" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F60" s="7">
+      <c r="G60" s="7">
         <v>10</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="H60" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="I60" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>14109</v>
       </c>
@@ -2962,17 +2970,17 @@
       <c r="E61" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F61" s="7">
+      <c r="G61" s="7">
         <v>10</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="H61" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="I61" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>14110</v>
       </c>
@@ -2988,17 +2996,17 @@
       <c r="E62" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F62" s="7">
+      <c r="G62" s="7">
         <v>10</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="H62" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="I62" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>14111</v>
       </c>
@@ -3014,17 +3022,17 @@
       <c r="E63" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F63" s="7">
+      <c r="G63" s="7">
         <v>10</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="H63" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="I63" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>13100</v>
       </c>
@@ -3040,17 +3048,17 @@
       <c r="E64" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F64" s="9">
-        <v>5</v>
-      </c>
-      <c r="G64" s="9" t="s">
+      <c r="G64" s="9">
+        <v>5</v>
+      </c>
+      <c r="H64" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="I64" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>13101</v>
       </c>
@@ -3066,17 +3074,17 @@
       <c r="E65" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F65" s="9">
-        <v>5</v>
-      </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="9">
+        <v>5</v>
+      </c>
+      <c r="H65" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="I65" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>13102</v>
       </c>
@@ -3092,17 +3100,17 @@
       <c r="E66" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F66" s="9">
-        <v>5</v>
-      </c>
-      <c r="G66" s="9" t="s">
+      <c r="G66" s="9">
+        <v>5</v>
+      </c>
+      <c r="H66" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="I66" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>13103</v>
       </c>
@@ -3118,17 +3126,17 @@
       <c r="E67" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F67" s="9">
-        <v>5</v>
-      </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="9">
+        <v>5</v>
+      </c>
+      <c r="H67" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="I67" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>13104</v>
       </c>
@@ -3144,17 +3152,17 @@
       <c r="E68" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F68" s="9">
+      <c r="G68" s="9">
         <v>10</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="H68" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="I68" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>13105</v>
       </c>
@@ -3170,17 +3178,17 @@
       <c r="E69" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F69" s="9">
+      <c r="G69" s="9">
         <v>10</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="H69" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="I69" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>12100</v>
       </c>
@@ -3196,17 +3204,17 @@
       <c r="E70" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="F70" s="8">
-        <v>5</v>
-      </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="8">
+        <v>5</v>
+      </c>
+      <c r="H70" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="I70" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>12101</v>
       </c>
@@ -3222,17 +3230,17 @@
       <c r="E71" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="F71" s="8">
-        <v>5</v>
-      </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="8">
+        <v>5</v>
+      </c>
+      <c r="H71" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="I71" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>12102</v>
       </c>
@@ -3248,17 +3256,17 @@
       <c r="E72" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="F72" s="8">
+      <c r="G72" s="8">
         <v>10</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="H72" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H72" s="8" t="s">
+      <c r="I72" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>12103</v>
       </c>
@@ -3274,17 +3282,17 @@
       <c r="E73" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="F73" s="8">
+      <c r="G73" s="8">
         <v>10</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="H73" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="I73" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>12103</v>
       </c>
@@ -3300,13 +3308,13 @@
       <c r="E74" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="F74" s="8">
+      <c r="G74" s="8">
         <v>10</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="H74" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H74" s="8" t="s">
+      <c r="I74" s="8" t="s">
         <v>86</v>
       </c>
     </row>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BFE5C5-5F31-40A9-A43B-2E6AAE13EE8F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906A6175-5C83-4529-83B9-18970E0049C8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,14 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(19_DeadlyAttack)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(19_CriticalHit)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nameKor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,14 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(19_cleaner)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(19_cleanerR)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{(1101,2),(1107,2),(2103,2),(2104,2),(3100,2),(3101,2)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -909,6 +893,22 @@
   </si>
   <si>
     <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19_deadlyattack)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19_criticalhit)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19_Cleaner)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19_CleanerR)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1377,7 +1377,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -1408,16 +1408,16 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1425,10 +1425,10 @@
         <v>19100</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>31</v>
@@ -1440,10 +1440,10 @@
         <v>3</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1451,10 +1451,10 @@
         <v>19101</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>32</v>
@@ -1466,10 +1466,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1477,10 +1477,10 @@
         <v>19102</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>31</v>
@@ -1492,10 +1492,10 @@
         <v>5</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1503,25 +1503,25 @@
         <v>19103</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>5</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10">
-        <v>5</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="I5" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1529,13 +1529,13 @@
         <v>19200</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="10" t="b">
         <v>1</v>
@@ -1544,10 +1544,10 @@
         <v>10</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1555,10 +1555,10 @@
         <v>19104</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>31</v>
@@ -1570,10 +1570,10 @@
         <v>3</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1581,10 +1581,10 @@
         <v>19105</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>31</v>
@@ -1596,10 +1596,10 @@
         <v>5</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1607,13 +1607,13 @@
         <v>19106</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9" s="10" t="b">
         <v>1</v>
@@ -1622,10 +1622,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1633,13 +1633,13 @@
         <v>19107</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="10" t="b">
         <v>1</v>
@@ -1648,10 +1648,10 @@
         <v>10</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1659,13 +1659,13 @@
         <v>19108</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="10" t="b">
         <v>1</v>
@@ -1674,10 +1674,10 @@
         <v>10</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1685,10 +1685,10 @@
         <v>13100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>31</v>
@@ -1700,10 +1700,10 @@
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1711,10 +1711,10 @@
         <v>13101</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>31</v>
@@ -1726,10 +1726,10 @@
         <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1737,10 +1737,10 @@
         <v>13102</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
@@ -1752,10 +1752,10 @@
         <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1763,10 +1763,10 @@
         <v>13103</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>31</v>
@@ -1778,10 +1778,10 @@
         <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1789,10 +1789,10 @@
         <v>13104</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>31</v>
@@ -1804,10 +1804,10 @@
         <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1815,10 +1815,10 @@
         <v>13105</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>31</v>
@@ -1830,10 +1830,10 @@
         <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1841,13 +1841,13 @@
         <v>13106</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>1</v>
@@ -1856,10 +1856,10 @@
         <v>10</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1867,13 +1867,13 @@
         <v>13107</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>1</v>
@@ -1882,10 +1882,10 @@
         <v>10</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1893,13 +1893,13 @@
         <v>13108</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="b">
         <v>1</v>
@@ -1908,10 +1908,10 @@
         <v>10</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1919,13 +1919,13 @@
         <v>13109</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>1</v>
@@ -1934,10 +1934,10 @@
         <v>10</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1945,13 +1945,13 @@
         <v>18100</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>1</v>
@@ -1960,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1971,13 +1971,13 @@
         <v>18101</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>1</v>
@@ -1986,10 +1986,10 @@
         <v>5</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1997,13 +1997,13 @@
         <v>18102</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E24" s="3" t="b">
         <v>1</v>
@@ -2012,10 +2012,10 @@
         <v>5</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2023,13 +2023,13 @@
         <v>18103</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E25" s="3" t="b">
         <v>1</v>
@@ -2038,10 +2038,10 @@
         <v>5</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2049,13 +2049,13 @@
         <v>18104</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E26" s="3" t="b">
         <v>1</v>
@@ -2064,10 +2064,10 @@
         <v>5</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2075,13 +2075,13 @@
         <v>18105</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E27" s="3" t="b">
         <v>1</v>
@@ -2090,10 +2090,10 @@
         <v>10</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2101,13 +2101,13 @@
         <v>18106</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E28" s="3" t="b">
         <v>1</v>
@@ -2116,10 +2116,10 @@
         <v>10</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2127,13 +2127,13 @@
         <v>18107</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E29" s="3" t="b">
         <v>1</v>
@@ -2142,10 +2142,10 @@
         <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2153,13 +2153,13 @@
         <v>17100</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E30" s="4" t="b">
         <v>1</v>
@@ -2168,10 +2168,10 @@
         <v>5</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2179,13 +2179,13 @@
         <v>17101</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E31" s="4" t="b">
         <v>1</v>
@@ -2194,10 +2194,10 @@
         <v>5</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2205,13 +2205,13 @@
         <v>17102</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E32" s="4" t="b">
         <v>1</v>
@@ -2220,10 +2220,10 @@
         <v>5</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2231,13 +2231,13 @@
         <v>17103</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E33" s="4" t="b">
         <v>1</v>
@@ -2246,10 +2246,10 @@
         <v>5</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2257,13 +2257,13 @@
         <v>17104</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E34" s="4" t="b">
         <v>1</v>
@@ -2272,10 +2272,10 @@
         <v>5</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2283,13 +2283,13 @@
         <v>17105</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E35" s="4" t="b">
         <v>1</v>
@@ -2298,10 +2298,10 @@
         <v>5</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2309,13 +2309,13 @@
         <v>17106</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E36" s="4" t="b">
         <v>1</v>
@@ -2324,10 +2324,10 @@
         <v>10</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2335,13 +2335,13 @@
         <v>17107</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E37" s="4" t="b">
         <v>1</v>
@@ -2350,10 +2350,10 @@
         <v>10</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2361,13 +2361,13 @@
         <v>17108</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E38" s="4" t="b">
         <v>1</v>
@@ -2376,10 +2376,10 @@
         <v>10</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2387,13 +2387,13 @@
         <v>16100</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E39" s="6" t="b">
         <v>1</v>
@@ -2402,10 +2402,10 @@
         <v>5</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2413,13 +2413,13 @@
         <v>16101</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E40" s="6" t="b">
         <v>1</v>
@@ -2428,10 +2428,10 @@
         <v>5</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2439,13 +2439,13 @@
         <v>16102</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E41" s="6" t="b">
         <v>1</v>
@@ -2454,10 +2454,10 @@
         <v>5</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2465,13 +2465,13 @@
         <v>16103</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E42" s="6" t="b">
         <v>1</v>
@@ -2480,10 +2480,10 @@
         <v>5</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2491,13 +2491,13 @@
         <v>16104</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E43" s="6" t="b">
         <v>1</v>
@@ -2506,10 +2506,10 @@
         <v>5</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2517,13 +2517,13 @@
         <v>16105</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E44" s="6" t="b">
         <v>1</v>
@@ -2532,10 +2532,10 @@
         <v>10</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2543,13 +2543,13 @@
         <v>16106</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E45" s="6" t="b">
         <v>1</v>
@@ -2558,10 +2558,10 @@
         <v>10</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2569,13 +2569,13 @@
         <v>16107</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E46" s="6" t="b">
         <v>1</v>
@@ -2584,10 +2584,10 @@
         <v>10</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2595,13 +2595,13 @@
         <v>15100</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E47" s="5" t="b">
         <v>1</v>
@@ -2610,10 +2610,10 @@
         <v>5</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2621,13 +2621,13 @@
         <v>15101</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E48" s="5" t="b">
         <v>1</v>
@@ -2636,10 +2636,10 @@
         <v>5</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2647,13 +2647,13 @@
         <v>15102</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E49" s="5" t="b">
         <v>1</v>
@@ -2662,10 +2662,10 @@
         <v>5</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2673,13 +2673,13 @@
         <v>15103</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E50" s="5" t="b">
         <v>1</v>
@@ -2688,10 +2688,10 @@
         <v>10</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2699,13 +2699,13 @@
         <v>15104</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E51" s="5" t="b">
         <v>1</v>
@@ -2714,10 +2714,10 @@
         <v>10</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2725,13 +2725,13 @@
         <v>14100</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E52" s="7" t="b">
         <v>1</v>
@@ -2740,10 +2740,10 @@
         <v>5</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2751,13 +2751,13 @@
         <v>14101</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E53" s="7" t="b">
         <v>1</v>
@@ -2766,10 +2766,10 @@
         <v>5</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2777,13 +2777,13 @@
         <v>14102</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E54" s="7" t="b">
         <v>1</v>
@@ -2792,10 +2792,10 @@
         <v>5</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2803,13 +2803,13 @@
         <v>14103</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E55" s="7" t="b">
         <v>1</v>
@@ -2818,10 +2818,10 @@
         <v>5</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2829,13 +2829,13 @@
         <v>14104</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E56" s="7" t="b">
         <v>1</v>
@@ -2844,10 +2844,10 @@
         <v>5</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2855,13 +2855,13 @@
         <v>14105</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E57" s="7" t="b">
         <v>1</v>
@@ -2870,10 +2870,10 @@
         <v>10</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2881,13 +2881,13 @@
         <v>14106</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E58" s="7" t="b">
         <v>1</v>
@@ -2896,10 +2896,10 @@
         <v>10</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2907,13 +2907,13 @@
         <v>14107</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E59" s="7" t="b">
         <v>1</v>
@@ -2922,10 +2922,10 @@
         <v>10</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2933,13 +2933,13 @@
         <v>14108</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E60" s="7" t="b">
         <v>1</v>
@@ -2948,10 +2948,10 @@
         <v>10</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2959,13 +2959,13 @@
         <v>14109</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E61" s="7" t="b">
         <v>1</v>
@@ -2974,10 +2974,10 @@
         <v>10</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2985,13 +2985,13 @@
         <v>14110</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E62" s="7" t="b">
         <v>1</v>
@@ -3000,10 +3000,10 @@
         <v>10</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3011,13 +3011,13 @@
         <v>14111</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E63" s="7" t="b">
         <v>1</v>
@@ -3026,10 +3026,10 @@
         <v>10</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3037,13 +3037,13 @@
         <v>13100</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E64" s="9" t="b">
         <v>1</v>
@@ -3052,10 +3052,10 @@
         <v>5</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3063,13 +3063,13 @@
         <v>13101</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E65" s="9" t="b">
         <v>1</v>
@@ -3078,10 +3078,10 @@
         <v>5</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3089,13 +3089,13 @@
         <v>13102</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E66" s="9" t="b">
         <v>1</v>
@@ -3104,10 +3104,10 @@
         <v>5</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3115,13 +3115,13 @@
         <v>13103</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E67" s="9" t="b">
         <v>1</v>
@@ -3130,10 +3130,10 @@
         <v>5</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3141,13 +3141,13 @@
         <v>13104</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E68" s="9" t="b">
         <v>1</v>
@@ -3156,10 +3156,10 @@
         <v>10</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3167,13 +3167,13 @@
         <v>13105</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E69" s="9" t="b">
         <v>1</v>
@@ -3182,10 +3182,10 @@
         <v>10</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3193,13 +3193,13 @@
         <v>12100</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E70" s="8" t="b">
         <v>1</v>
@@ -3208,10 +3208,10 @@
         <v>5</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3219,13 +3219,13 @@
         <v>12101</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E71" s="8" t="b">
         <v>1</v>
@@ -3234,10 +3234,10 @@
         <v>5</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3245,13 +3245,13 @@
         <v>12102</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E72" s="8" t="b">
         <v>1</v>
@@ -3260,10 +3260,10 @@
         <v>10</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3271,13 +3271,13 @@
         <v>12103</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E73" s="8" t="b">
         <v>1</v>
@@ -3286,10 +3286,10 @@
         <v>10</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3297,13 +3297,13 @@
         <v>12103</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E74" s="8" t="b">
         <v>1</v>
@@ -3312,10 +3312,10 @@
         <v>10</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -3405,10 +3405,10 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
@@ -3419,10 +3419,10 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>28</v>
@@ -3433,21 +3433,21 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
@@ -3489,21 +3489,21 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>26</v>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906A6175-5C83-4529-83B9-18970E0049C8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D8CC58-A197-4825-AC3D-9D2EEC48C45E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1376,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>13100</v>
+        <v>14100</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>184</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>13101</v>
+        <v>14101</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>185</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>13102</v>
+        <v>14102</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>186</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>13103</v>
+        <v>14103</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>187</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>13104</v>
+        <v>14104</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>188</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>13105</v>
+        <v>14105</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>189</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>13106</v>
+        <v>14106</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>190</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>13107</v>
+        <v>14107</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>191</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>13108</v>
+        <v>14108</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>192</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>13109</v>
+        <v>14109</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>193</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
-        <v>14100</v>
+        <v>13100</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>118</v>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
-        <v>14101</v>
+        <v>13101</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>120</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
-        <v>14102</v>
+        <v>13102</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>122</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="55" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
-        <v>14103</v>
+        <v>13103</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>124</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="56" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
-        <v>14104</v>
+        <v>13104</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>126</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="57" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
-        <v>14105</v>
+        <v>13105</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>128</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="58" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
-        <v>14106</v>
+        <v>13106</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>130</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="59" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
-        <v>14107</v>
+        <v>13107</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>132</v>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="60" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
-        <v>14108</v>
+        <v>13108</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>134</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="61" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
-        <v>14109</v>
+        <v>13109</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>136</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="62" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
-        <v>14110</v>
+        <v>13110</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>138</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="63" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
-        <v>14111</v>
+        <v>13111</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>140</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
-        <v>13100</v>
+        <v>12100</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>143</v>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
-        <v>13101</v>
+        <v>12101</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>144</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="66" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
-        <v>13102</v>
+        <v>12102</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>142</v>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="67" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
-        <v>13103</v>
+        <v>12103</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>145</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="68" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
-        <v>13104</v>
+        <v>12104</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>147</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="69" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
-        <v>13105</v>
+        <v>12105</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>149</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="70" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
-        <v>12100</v>
+        <v>11100</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>153</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="71" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
-        <v>12101</v>
+        <v>11101</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>158</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="72" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
-        <v>12102</v>
+        <v>11102</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>154</v>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="73" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
-        <v>12103</v>
+        <v>11103</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>155</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="74" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
-        <v>12103</v>
+        <v>11104</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>170</v>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D8CC58-A197-4825-AC3D-9D2EEC48C45E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E92001-441D-43CB-9425-74F0C0FFF5B6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="232">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -888,10 +888,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nameEng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -909,6 +905,44 @@
   </si>
   <si>
     <t>{(19_CleanerR)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(14_cat_01_00), (14_cat_01_01)}</t>
+  </si>
+  <si>
+    <t>{(14_cat_02_00), (14_cat_02_01)}</t>
+  </si>
+  <si>
+    <t>{(14_pitbull_00), (14_pitbull_01), (14_pitbull_02)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(14_owl_00), (14_owl_01)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(14_crow_00), (14_crow_01)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(14_salamander_00)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(14_carbannog_00), (14_carbannog_01), (14_carbannog_02), (14_carbannog_03)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(14_tag_00), (14_tag_01), (14_tag_02), (14_tag_03)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(14_tim_00), (14_tim_01), (14_tim_02), (14_tim_03)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(14_madbuddy_00), (14_madbuddy_01), (14_madbuddy_02), (14_madbuddy_03)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1376,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1396,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>33</v>
@@ -1408,7 +1442,7 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G1" t="s">
         <v>34</v>
@@ -1440,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>42</v>
@@ -1466,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>43</v>
@@ -1570,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>45</v>
@@ -1596,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>45</v>
@@ -1700,7 +1734,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>45</v>
@@ -1726,7 +1760,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>45</v>
@@ -1752,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>45</v>
@@ -1778,7 +1812,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>45</v>
@@ -1804,7 +1838,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>45</v>
@@ -1830,7 +1864,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>45</v>
@@ -1856,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>46</v>
@@ -1882,7 +1916,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>46</v>
@@ -1908,7 +1942,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>46</v>
@@ -1934,7 +1968,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>46</v>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E92001-441D-43CB-9425-74F0C0FFF5B6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AEC5EC-5E16-4AA4-8720-408A7B297637}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Npc" sheetId="1" r:id="rId1"/>
     <sheet name="디스크립션" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Npc!$A$1:$I$74</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="233">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -943,6 +946,10 @@
   </si>
   <si>
     <t>{(14_madbuddy_00), (14_madbuddy_01), (14_madbuddy_02), (14_madbuddy_03)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19_Ailliy_ready_00), (19_Ailliy_ready_01), (19_Ailliy_00), (19_Ailliy_01)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1411,7 +1418,10 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1705,10 +1715,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>46</v>
@@ -3353,6 +3363,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I74" xr:uid="{E8405B72-D363-4F52-8934-CB680717F4C9}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AEC5EC-5E16-4AA4-8720-408A7B297637}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B71099-2273-4920-8D68-88A828E46017}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="234">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -950,6 +950,10 @@
   </si>
   <si>
     <t>{(19_Ailliy_ready_00), (19_Ailliy_ready_01), (19_Ailliy_00), (19_Ailliy_01)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19_MustleMustle)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1421,7 +1425,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1692,7 +1696,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>46</v>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B71099-2273-4920-8D68-88A828E46017}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC7DE04-0026-4344-98EB-2F835FF17CE0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -929,10 +929,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(14_salamander_00)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{(14_carbannog_00), (14_carbannog_01), (14_carbannog_02), (14_carbannog_03)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -954,6 +950,10 @@
   </si>
   <si>
     <t>{(19_MustleMustle)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(14_salamander_00), (14_salamander_01)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1425,7 +1425,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1696,7 +1696,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>46</v>
@@ -1722,7 +1722,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>46</v>
@@ -1878,7 +1878,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>45</v>
@@ -1904,7 +1904,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>46</v>
@@ -1930,7 +1930,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>46</v>
@@ -1956,7 +1956,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>46</v>
@@ -1982,7 +1982,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>46</v>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC7DE04-0026-4344-98EB-2F835FF17CE0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9327100E-46B0-4FE2-B0B3-054DB3BF010A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -949,11 +949,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(19_MustleMustle)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{(14_salamander_00), (14_salamander_01)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19_Bloom_00), (19_Bloom_01), (19_Bloom_02)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1425,7 +1425,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1696,7 +1696,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>46</v>
@@ -1878,7 +1878,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>45</v>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9327100E-46B0-4FE2-B0B3-054DB3BF010A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C37AD4C-9AC5-4653-B4FD-BA297BF5055D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -945,15 +945,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(19_Ailliy_ready_00), (19_Ailliy_ready_01), (19_Ailliy_00), (19_Ailliy_01)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{(14_salamander_00), (14_salamander_01)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{(19_Bloom_00), (19_Bloom_01), (19_Bloom_02)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(19_Ailliy_00), (19_Ailliy_01), (19_Ailliy_02)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1425,7 +1425,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1696,7 +1696,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>46</v>
@@ -1722,7 +1722,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>46</v>
@@ -1878,7 +1878,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>45</v>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C37AD4C-9AC5-4653-B4FD-BA297BF5055D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17BF64C-8D65-4359-A229-15AECFB41950}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="236">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,18 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(1100,2),(1106,2),(2100,2),(2101,2),(3100,1),(3101,1),(3102,1),(3103,1),(3104,1),(3105,1)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(1104,2),(1109,2),(2102,2),(2103,2),(3100,1),(3101,1),(3102,1),(3103,1),(3104,1),(3105,1)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(1102,2),(1108,2),(2106,2),(2107,2),(3100,1),(3101,1),(3102,1),(3103,1),(3104,1),(3105,1)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{(1101,2),(1107,2),(2101,2),(2103,2),(3100,1),(3101,1),(3102,1),(3103,1),(3104,1),(3105,1)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,10 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(1101,2),(1107,2),(2103,2),(2104,2),(3100,2),(3101,2)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>핏불 경비원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -945,15 +929,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(14_salamander_00), (14_salamander_01)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{(19_Bloom_00), (19_Bloom_01), (19_Bloom_02)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{(19_Ailliy_00), (19_Ailliy_01), (19_Ailliy_02)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(1100,100),(1106,100),(2100,100),(2101,100),(3100,1),(3101,1),(3102,1),(3103,1),(3104,1),(3105,1)}</t>
+  </si>
+  <si>
+    <t>{(1104,100),(1109,100),(2102,100),(2103,100),(3100,1),(3101,1),(3102,1),(3103,1),(3104,1),(3105,1)}</t>
+  </si>
+  <si>
+    <t>{(1102,100),(1108,100),(2106,100),(2107,100),(3100,1),(3101,1),(3102,1),(3103,1),(3104,1),(3105,1)}</t>
+  </si>
+  <si>
+    <t>{(1101,100),(1107,100),(2101,100),(2103,100),(3100,1),(3101,1),(3102,1),(3103,1),(3104,1),(3105,1)}</t>
+  </si>
+  <si>
+    <t>{(1103,100),(1105,100),(2105,100),(2106,100),(2108,100),(3100,1),(3101,1),(3102,1),(3103,1),(3104,1),(3105,1),(3106,1),(3107,1),(3108,1),(3109,1),(3110,1),(3111,1)}</t>
+  </si>
+  <si>
+    <t>{(1101,100),(1107,100),(2103,100),(2104,100),(3100,100),(3101,100)}</t>
+  </si>
+  <si>
+    <t>{(14_salamander_00)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -985,7 +987,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1046,6 +1048,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1061,7 +1069,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1096,6 +1104,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1425,7 +1436,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1456,7 +1467,7 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G1" t="s">
         <v>34</v>
@@ -1473,10 +1484,10 @@
         <v>19100</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>31</v>
@@ -1488,10 +1499,10 @@
         <v>3</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>42</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1499,10 +1510,10 @@
         <v>19101</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>32</v>
@@ -1514,10 +1525,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>43</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1525,10 +1536,10 @@
         <v>19102</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>31</v>
@@ -1543,7 +1554,7 @@
         <v>38</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1551,10 +1562,10 @@
         <v>19103</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>37</v>
@@ -1569,7 +1580,7 @@
         <v>39</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>45</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1577,10 +1588,10 @@
         <v>19200</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>40</v>
@@ -1595,7 +1606,7 @@
         <v>41</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>46</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1603,10 +1614,10 @@
         <v>19104</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>31</v>
@@ -1618,10 +1629,10 @@
         <v>3</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>45</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1629,10 +1640,10 @@
         <v>19105</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>31</v>
@@ -1644,10 +1655,10 @@
         <v>5</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>45</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1655,13 +1666,13 @@
         <v>19106</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E9" s="10" t="b">
         <v>1</v>
@@ -1670,10 +1681,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>72</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1681,10 +1692,10 @@
         <v>19107</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>40</v>
@@ -1696,10 +1707,10 @@
         <v>10</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>46</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1707,10 +1718,10 @@
         <v>19108</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>40</v>
@@ -1722,10 +1733,10 @@
         <v>20</v>
       </c>
       <c r="H11" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1733,10 +1744,10 @@
         <v>14100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>31</v>
@@ -1748,10 +1759,10 @@
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1759,10 +1770,10 @@
         <v>14101</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>31</v>
@@ -1774,10 +1785,10 @@
         <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1785,10 +1796,10 @@
         <v>14102</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
@@ -1800,10 +1811,10 @@
         <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1811,10 +1822,10 @@
         <v>14103</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>31</v>
@@ -1826,10 +1837,10 @@
         <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1837,10 +1848,10 @@
         <v>14104</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>31</v>
@@ -1852,10 +1863,10 @@
         <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1863,10 +1874,10 @@
         <v>14105</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>31</v>
@@ -1877,11 +1888,11 @@
       <c r="G17" s="2">
         <v>5</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>231</v>
+      <c r="H17" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1889,10 +1900,10 @@
         <v>14106</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>40</v>
@@ -1904,10 +1915,10 @@
         <v>10</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1915,10 +1926,10 @@
         <v>14107</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>40</v>
@@ -1930,10 +1941,10 @@
         <v>10</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1941,10 +1952,10 @@
         <v>14108</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>40</v>
@@ -1956,10 +1967,10 @@
         <v>10</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1967,10 +1978,10 @@
         <v>14109</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>40</v>
@@ -1982,10 +1993,10 @@
         <v>10</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1993,13 +2004,13 @@
         <v>18100</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>1</v>
@@ -2008,10 +2019,10 @@
         <v>5</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2019,13 +2030,13 @@
         <v>18101</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>1</v>
@@ -2034,10 +2045,10 @@
         <v>5</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2045,13 +2056,13 @@
         <v>18102</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E24" s="3" t="b">
         <v>1</v>
@@ -2060,10 +2071,10 @@
         <v>5</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2071,13 +2082,13 @@
         <v>18103</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E25" s="3" t="b">
         <v>1</v>
@@ -2086,10 +2097,10 @@
         <v>5</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2097,13 +2108,13 @@
         <v>18104</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E26" s="3" t="b">
         <v>1</v>
@@ -2112,10 +2123,10 @@
         <v>5</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2123,13 +2134,13 @@
         <v>18105</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E27" s="3" t="b">
         <v>1</v>
@@ -2138,10 +2149,10 @@
         <v>10</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2149,13 +2160,13 @@
         <v>18106</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E28" s="3" t="b">
         <v>1</v>
@@ -2164,10 +2175,10 @@
         <v>10</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2175,13 +2186,13 @@
         <v>18107</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E29" s="3" t="b">
         <v>1</v>
@@ -2190,10 +2201,10 @@
         <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2201,13 +2212,13 @@
         <v>17100</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E30" s="4" t="b">
         <v>1</v>
@@ -2216,10 +2227,10 @@
         <v>5</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2227,13 +2238,13 @@
         <v>17101</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E31" s="4" t="b">
         <v>1</v>
@@ -2242,10 +2253,10 @@
         <v>5</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2253,13 +2264,13 @@
         <v>17102</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E32" s="4" t="b">
         <v>1</v>
@@ -2268,10 +2279,10 @@
         <v>5</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2279,13 +2290,13 @@
         <v>17103</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E33" s="4" t="b">
         <v>1</v>
@@ -2294,10 +2305,10 @@
         <v>5</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2305,13 +2316,13 @@
         <v>17104</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E34" s="4" t="b">
         <v>1</v>
@@ -2320,10 +2331,10 @@
         <v>5</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2331,13 +2342,13 @@
         <v>17105</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E35" s="4" t="b">
         <v>1</v>
@@ -2346,10 +2357,10 @@
         <v>5</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2357,13 +2368,13 @@
         <v>17106</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E36" s="4" t="b">
         <v>1</v>
@@ -2372,10 +2383,10 @@
         <v>10</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2383,13 +2394,13 @@
         <v>17107</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E37" s="4" t="b">
         <v>1</v>
@@ -2398,10 +2409,10 @@
         <v>10</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2409,13 +2420,13 @@
         <v>17108</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E38" s="4" t="b">
         <v>1</v>
@@ -2424,10 +2435,10 @@
         <v>10</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2435,13 +2446,13 @@
         <v>16100</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E39" s="6" t="b">
         <v>1</v>
@@ -2450,10 +2461,10 @@
         <v>5</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2461,13 +2472,13 @@
         <v>16101</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E40" s="6" t="b">
         <v>1</v>
@@ -2476,10 +2487,10 @@
         <v>5</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2487,13 +2498,13 @@
         <v>16102</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E41" s="6" t="b">
         <v>1</v>
@@ -2502,10 +2513,10 @@
         <v>5</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2513,13 +2524,13 @@
         <v>16103</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E42" s="6" t="b">
         <v>1</v>
@@ -2528,10 +2539,10 @@
         <v>5</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2539,13 +2550,13 @@
         <v>16104</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E43" s="6" t="b">
         <v>1</v>
@@ -2554,10 +2565,10 @@
         <v>5</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2565,13 +2576,13 @@
         <v>16105</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E44" s="6" t="b">
         <v>1</v>
@@ -2580,10 +2591,10 @@
         <v>10</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2591,13 +2602,13 @@
         <v>16106</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E45" s="6" t="b">
         <v>1</v>
@@ -2606,10 +2617,10 @@
         <v>10</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2617,13 +2628,13 @@
         <v>16107</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E46" s="6" t="b">
         <v>1</v>
@@ -2632,10 +2643,10 @@
         <v>10</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2643,13 +2654,13 @@
         <v>15100</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E47" s="5" t="b">
         <v>1</v>
@@ -2658,10 +2669,10 @@
         <v>5</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2669,13 +2680,13 @@
         <v>15101</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E48" s="5" t="b">
         <v>1</v>
@@ -2684,10 +2695,10 @@
         <v>5</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2695,13 +2706,13 @@
         <v>15102</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E49" s="5" t="b">
         <v>1</v>
@@ -2710,10 +2721,10 @@
         <v>5</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2721,13 +2732,13 @@
         <v>15103</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E50" s="5" t="b">
         <v>1</v>
@@ -2736,10 +2747,10 @@
         <v>10</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2747,13 +2758,13 @@
         <v>15104</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E51" s="5" t="b">
         <v>1</v>
@@ -2762,10 +2773,10 @@
         <v>10</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2773,13 +2784,13 @@
         <v>13100</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E52" s="7" t="b">
         <v>1</v>
@@ -2788,10 +2799,10 @@
         <v>5</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2799,13 +2810,13 @@
         <v>13101</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E53" s="7" t="b">
         <v>1</v>
@@ -2814,10 +2825,10 @@
         <v>5</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2825,13 +2836,13 @@
         <v>13102</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E54" s="7" t="b">
         <v>1</v>
@@ -2840,10 +2851,10 @@
         <v>5</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2851,13 +2862,13 @@
         <v>13103</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E55" s="7" t="b">
         <v>1</v>
@@ -2866,10 +2877,10 @@
         <v>5</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2877,13 +2888,13 @@
         <v>13104</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E56" s="7" t="b">
         <v>1</v>
@@ -2892,10 +2903,10 @@
         <v>5</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2903,13 +2914,13 @@
         <v>13105</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E57" s="7" t="b">
         <v>1</v>
@@ -2918,10 +2929,10 @@
         <v>10</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2929,13 +2940,13 @@
         <v>13106</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E58" s="7" t="b">
         <v>1</v>
@@ -2944,10 +2955,10 @@
         <v>10</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2955,13 +2966,13 @@
         <v>13107</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E59" s="7" t="b">
         <v>1</v>
@@ -2970,10 +2981,10 @@
         <v>10</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2981,13 +2992,13 @@
         <v>13108</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E60" s="7" t="b">
         <v>1</v>
@@ -2996,10 +3007,10 @@
         <v>10</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3007,13 +3018,13 @@
         <v>13109</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E61" s="7" t="b">
         <v>1</v>
@@ -3022,10 +3033,10 @@
         <v>10</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3033,13 +3044,13 @@
         <v>13110</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E62" s="7" t="b">
         <v>1</v>
@@ -3048,10 +3059,10 @@
         <v>10</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3059,13 +3070,13 @@
         <v>13111</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E63" s="7" t="b">
         <v>1</v>
@@ -3074,10 +3085,10 @@
         <v>10</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3085,13 +3096,13 @@
         <v>12100</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E64" s="9" t="b">
         <v>1</v>
@@ -3100,10 +3111,10 @@
         <v>5</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3111,13 +3122,13 @@
         <v>12101</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E65" s="9" t="b">
         <v>1</v>
@@ -3126,10 +3137,10 @@
         <v>5</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3137,13 +3148,13 @@
         <v>12102</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E66" s="9" t="b">
         <v>1</v>
@@ -3152,10 +3163,10 @@
         <v>5</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3163,13 +3174,13 @@
         <v>12103</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E67" s="9" t="b">
         <v>1</v>
@@ -3178,10 +3189,10 @@
         <v>5</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3189,13 +3200,13 @@
         <v>12104</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E68" s="9" t="b">
         <v>1</v>
@@ -3204,10 +3215,10 @@
         <v>10</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3215,13 +3226,13 @@
         <v>12105</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E69" s="9" t="b">
         <v>1</v>
@@ -3230,10 +3241,10 @@
         <v>10</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3241,13 +3252,13 @@
         <v>11100</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E70" s="8" t="b">
         <v>1</v>
@@ -3256,10 +3267,10 @@
         <v>5</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3267,13 +3278,13 @@
         <v>11101</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E71" s="8" t="b">
         <v>1</v>
@@ -3282,10 +3293,10 @@
         <v>5</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3293,13 +3304,13 @@
         <v>11102</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E72" s="8" t="b">
         <v>1</v>
@@ -3308,10 +3319,10 @@
         <v>10</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3319,13 +3330,13 @@
         <v>11103</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E73" s="8" t="b">
         <v>1</v>
@@ -3334,10 +3345,10 @@
         <v>10</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3345,13 +3356,13 @@
         <v>11104</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E74" s="8" t="b">
         <v>1</v>
@@ -3360,10 +3371,10 @@
         <v>10</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3404,7 +3415,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -3440,7 +3451,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -3454,10 +3465,10 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
@@ -3468,10 +3479,10 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>28</v>
@@ -3482,21 +3493,21 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -3510,7 +3521,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -3524,7 +3535,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
@@ -3538,21 +3549,21 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>26</v>

--- a/DesignDocs/VariableData/Npc.xlsx
+++ b/DesignDocs/VariableData/Npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17BF64C-8D65-4359-A229-15AECFB41950}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC6E35C-F66F-4782-992C-B9FE63D5C126}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -823,10 +823,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>칼잡이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정비공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -867,14 +863,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Butcher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gangsta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -956,6 +944,18 @@
   </si>
   <si>
     <t>{(14_salamander_00)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gangster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thrower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투척꾼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1436,7 +1436,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1467,7 +1467,7 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G1" t="s">
         <v>34</v>
@@ -1499,10 +1499,10 @@
         <v>3</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1525,10 +1525,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1554,7 +1554,7 @@
         <v>38</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1580,7 +1580,7 @@
         <v>39</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1606,7 +1606,7 @@
         <v>41</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1629,10 +1629,10 @@
         <v>3</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1655,10 +1655,10 @@
         <v>5</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1684,7 +1684,7 @@
         <v>68</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1707,10 +1707,10 @@
         <v>10</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1733,10 +1733,10 @@
         <v>20</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1759,7 +1759,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>42</v>
@@ -1785,7 +1785,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>42</v>
@@ -1811,7 +1811,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>42</v>
@@ -1837,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>42</v>
@@ -1863,7 +1863,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>42</v>
@@ -1889,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>42</v>
@@ -1915,7 +1915,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>43</v>
@@ -1941,7 +1941,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>43</v>
@@ -1967,7 +1967,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>43</v>
@@ -1993,7 +1993,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>43</v>
@@ -2004,7 +2004,7 @@
         <v>18100</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>198</v>
@@ -2029,8 +2029,8 @@
       <c r="A23" s="3">
         <v>18101</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>212</v>
+      <c r="B23" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>199</v>
@@ -2056,10 +2056,10 @@
         <v>18102</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>73</v>
@@ -2082,10 +2082,10 @@
         <v>18103</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>73</v>
@@ -2108,10 +2108,10 @@
         <v>18104</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>73</v>
@@ -2134,7 +2134,7 @@
         <v>18105</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>179</v>
@@ -2160,7 +2160,7 @@
         <v>18106</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>169</v>
@@ -2186,7 +2186,7 @@
         <v>18107</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>168</v>
@@ -2212,7 +2212,7 @@
         <v>17100</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>83</v>
@@ -2238,7 +2238,7 @@
         <v>17101</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>84</v>
@@ -2267,7 +2267,7 @@
         <v>79</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>73</v>
@@ -2293,7 +2293,7 @@
         <v>80</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>73</v>
